--- a/public/template/excel/format_laporan_operasi_2021_preview.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="510" windowWidth="33600" windowHeight="20490"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="33600" windowHeight="20496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1731,16 +1731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="2">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G2" s="64"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>230</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>21</v>
@@ -2128,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>22</v>
@@ -2151,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>24</v>
@@ -2197,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>25</v>
@@ -2220,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>26</v>
@@ -2243,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>27</v>
@@ -2266,7 +2266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>28</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="9" t="s">
         <v>33</v>
@@ -2402,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="9" t="s">
         <v>34</v>
@@ -2425,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="9" t="s">
         <v>35</v>
@@ -2448,7 +2448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -2471,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="9" t="s">
         <v>36</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
         <v>37</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
         <v>20</v>
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -2563,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="9" t="s">
         <v>38</v>
@@ -2586,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
         <v>39</v>
@@ -2609,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
         <v>24</v>
@@ -2632,7 +2632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>8</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
         <v>30</v>
@@ -2780,7 +2780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
         <v>40</v>
@@ -2818,7 +2818,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="9" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>3</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="21" t="s">
         <v>171</v>
@@ -2902,7 +2902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="21" t="s">
         <v>172</v>
@@ -2925,7 +2925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="21" t="s">
         <v>173</v>
@@ -2948,7 +2948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="19" t="s">
         <v>174</v>
@@ -2973,7 +2973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>4</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>8</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>8</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>5</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="F63" s="12"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>8</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>8</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>8</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="9" t="s">
         <v>57</v>
@@ -3389,7 +3389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>8</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
         <v>63</v>
@@ -3512,7 +3512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
         <v>64</v>
@@ -3535,7 +3535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
         <v>65</v>
@@ -3558,7 +3558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>67</v>
@@ -3606,7 +3606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
         <v>68</v>
@@ -3629,7 +3629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>7</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>8</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>8</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>8</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>8</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
         <v>77</v>
@@ -3842,7 +3842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>8</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>8</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>8</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="F97" s="12"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
         <v>121</v>
@@ -3968,7 +3968,7 @@
       <c r="F98" s="12"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="9" t="s">
         <v>122</v>
@@ -3991,7 +3991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="9" t="s">
         <v>123</v>
@@ -4014,7 +4014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="9" t="s">
         <v>124</v>
@@ -4037,7 +4037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="9" t="s">
         <v>125</v>
@@ -4060,7 +4060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="9" t="s">
         <v>126</v>
@@ -4083,7 +4083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
         <v>208</v>
@@ -4108,7 +4108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
         <v>127</v>
@@ -4119,7 +4119,7 @@
       <c r="F105" s="12"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="9" t="s">
         <v>82</v>
@@ -4142,7 +4142,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="9" t="s">
         <v>84</v>
@@ -4165,7 +4165,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="9" t="s">
         <v>85</v>
@@ -4188,7 +4188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="9" t="s">
         <v>86</v>
@@ -4211,7 +4211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6" t="s">
         <v>206</v>
@@ -4236,7 +4236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
         <v>128</v>
@@ -4247,7 +4247,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="9" t="s">
         <v>87</v>
@@ -4270,7 +4270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="9" t="s">
         <v>88</v>
@@ -4293,7 +4293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="9" t="s">
         <v>89</v>
@@ -4316,7 +4316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="9" t="s">
         <v>90</v>
@@ -4339,7 +4339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
         <v>204</v>
@@ -4364,7 +4364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>231</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="F117" s="12"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>9</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="F118" s="12"/>
       <c r="G118" s="14"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>8</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>8</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>8</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>10</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F124" s="12"/>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="21" t="s">
         <v>171</v>
@@ -4551,7 +4551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="21" t="s">
         <v>172</v>
@@ -4574,7 +4574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="21" t="s">
         <v>173</v>
@@ -4597,7 +4597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="19" t="s">
         <v>174</v>
@@ -4622,7 +4622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>11</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="F129" s="12"/>
       <c r="G129" s="27"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>8</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>8</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>8</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>8</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>8</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>12</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="F138" s="12"/>
       <c r="G138" s="27"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="9" t="s">
         <v>57</v>
@@ -4873,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="9" t="s">
         <v>59</v>
@@ -4896,7 +4896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="9" t="s">
         <v>60</v>
@@ -4919,7 +4919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="9" t="s">
         <v>61</v>
@@ -4942,7 +4942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="9" t="s">
         <v>62</v>
@@ -4965,7 +4965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="9" t="s">
         <v>63</v>
@@ -4988,7 +4988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>8</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>8</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>8</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>8</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>13</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="F151" s="12"/>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>8</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>8</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>8</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>8</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>8</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
         <v>77</v>
@@ -5326,7 +5326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="29" t="s">
         <v>79</v>
@@ -5374,7 +5374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>8</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>8</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>14</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>8</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>8</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>8</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>8</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>8</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>15</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="F171" s="12"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>8</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>8</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
         <v>110</v>
@@ -5727,7 +5727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="s">
         <v>8</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
         <v>115</v>
@@ -5850,7 +5850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>8</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>8</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>16</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="F183" s="12"/>
       <c r="G183" s="14"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>8</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>8</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>8</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>8</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>8</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>8</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>8</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>17</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="F192" s="12"/>
       <c r="G192" s="14"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="9" t="s">
         <v>57</v>
@@ -6153,7 +6153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="9" t="s">
         <v>59</v>
@@ -6176,7 +6176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="9" t="s">
         <v>60</v>
@@ -6199,7 +6199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="9" t="s">
         <v>61</v>
@@ -6222,7 +6222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="9" t="s">
         <v>62</v>
@@ -6245,7 +6245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="9" t="s">
         <v>63</v>
@@ -6268,7 +6268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="9" t="s">
         <v>64</v>
@@ -6291,7 +6291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>8</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>8</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="30">
         <v>18</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="F205" s="12"/>
       <c r="G205" s="31"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>8</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>8</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>8</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>8</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>8</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>8</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
         <v>77</v>
@@ -6604,7 +6604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
         <v>78</v>
@@ -6627,7 +6627,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>8</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>8</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>8</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>19</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="F217" s="12"/>
       <c r="G217" s="14"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>8</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="F218" s="12"/>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>8</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>8</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>8</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>8</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
         <v>126</v>
@@ -6853,7 +6853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>8</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>8</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="F226" s="12"/>
       <c r="G226" s="14"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>8</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>8</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>8</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>8</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>8</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>8</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="F232" s="12"/>
       <c r="G232" s="14"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>8</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>8</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>8</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>8</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>8</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>20</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="F238" s="12"/>
       <c r="G238" s="14"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>8</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="F239" s="12"/>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>8</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>8</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>8</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
         <v>134</v>
@@ -7313,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
         <v>135</v>
@@ -7336,7 +7336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
         <v>136</v>
@@ -7359,7 +7359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
         <v>137</v>
@@ -7382,7 +7382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
         <v>138</v>
@@ -7405,7 +7405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
         <v>139</v>
@@ -7428,7 +7428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
         <v>270</v>
@@ -7451,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
         <v>140</v>
@@ -7474,7 +7474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>8</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>8</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>8</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>8</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
         <v>145</v>
@@ -7589,7 +7589,7 @@
       <c r="F255" s="12"/>
       <c r="G255" s="13"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
         <v>146</v>
@@ -7612,7 +7612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
         <v>147</v>
@@ -7635,7 +7635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
         <v>148</v>
@@ -7658,7 +7658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
         <v>149</v>
@@ -7681,7 +7681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="6" t="s">
         <v>285</v>
@@ -7706,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>21</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="F261" s="12"/>
       <c r="G261" s="14"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>8</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>8</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>8</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>8</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>8</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>8</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
         <v>158</v>
@@ -7917,7 +7917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>8</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>22</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="F271" s="12"/>
       <c r="G271" s="14"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>8</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>8</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>8</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>8</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>23</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="F277" s="12"/>
       <c r="G277" s="14"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>8</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>8</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="21" t="s">
         <v>96</v>
@@ -8168,7 +8168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>8</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>8</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>24</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="F283" s="12"/>
       <c r="G283" s="14"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="s">
         <v>162</v>
@@ -8254,7 +8254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="s">
         <v>95</v>
@@ -8277,7 +8277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="s">
         <v>96</v>
@@ -8300,7 +8300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="s">
         <v>97</v>
@@ -8323,7 +8323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="s">
         <v>160</v>
@@ -8346,7 +8346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>25</v>
       </c>
@@ -8359,7 +8359,7 @@
       <c r="F289" s="12"/>
       <c r="G289" s="14"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>8</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>8</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>8</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>8</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>26</v>
       </c>
@@ -8497,7 +8497,7 @@
       <c r="F295" s="12"/>
       <c r="G295" s="27"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="s">
         <v>93</v>
@@ -8520,7 +8520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
         <v>95</v>
@@ -8543,7 +8543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
         <v>96</v>
@@ -8566,7 +8566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
         <v>97</v>
@@ -8589,7 +8589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
         <v>160</v>
@@ -8612,7 +8612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>27</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="F301" s="12"/>
       <c r="G301" s="27"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
         <v>93</v>
@@ -8648,7 +8648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
         <v>95</v>
@@ -8671,7 +8671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
         <v>96</v>
@@ -8694,7 +8694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
         <v>97</v>
@@ -8717,7 +8717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
         <v>160</v>
@@ -8740,7 +8740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>28</v>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="F307" s="12"/>
       <c r="G307" s="27"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
         <v>93</v>
@@ -8776,7 +8776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
         <v>95</v>
@@ -8799,7 +8799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
         <v>96</v>
@@ -8822,7 +8822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
         <v>97</v>
@@ -8845,7 +8845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
         <v>160</v>
@@ -8868,7 +8868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>29</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="F313" s="12"/>
       <c r="G313" s="14"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="9" t="s">
         <v>93</v>
@@ -8908,7 +8908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>8</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>8</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>8</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>8</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>8</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
         <v>168</v>
@@ -9056,7 +9056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>30</v>
       </c>
@@ -9073,7 +9073,7 @@
       <c r="F321" s="12"/>
       <c r="G321" s="13"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
         <v>225</v>
@@ -9096,7 +9096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
         <v>226</v>
@@ -9119,7 +9119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
         <v>227</v>
@@ -9142,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
         <v>11</v>
@@ -9167,7 +9167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>263</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="F326" s="12"/>
       <c r="G326" s="13"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>31</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="F327" s="12"/>
       <c r="G327" s="13"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
       <c r="B328" s="36" t="s">
         <v>176</v>
@@ -9204,7 +9204,7 @@
       <c r="F328" s="12"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
       <c r="B329" s="37" t="s">
         <v>177</v>
@@ -9227,7 +9227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="B330" s="37" t="s">
         <v>178</v>
@@ -9250,7 +9250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="B331" s="37" t="s">
         <v>272</v>
@@ -9273,7 +9273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
       <c r="B332" s="37" t="s">
         <v>273</v>
@@ -9296,7 +9296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
       <c r="B333" s="37" t="s">
         <v>274</v>
@@ -9319,7 +9319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
       <c r="B334" s="37" t="s">
         <v>275</v>
@@ -9342,7 +9342,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="B335" s="37" t="s">
         <v>288</v>
@@ -9367,7 +9367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="B336" s="36" t="s">
         <v>179</v>
@@ -9378,7 +9378,7 @@
       <c r="F336" s="12"/>
       <c r="G336" s="13"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
       <c r="B337" s="37" t="s">
         <v>180</v>
@@ -9401,7 +9401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
       <c r="B338" s="37" t="s">
         <v>181</v>
@@ -9424,7 +9424,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="B339" s="37" t="s">
         <v>182</v>
@@ -9447,7 +9447,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="B340" s="37" t="s">
         <v>183</v>
@@ -9471,7 +9471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
       <c r="B341" s="37" t="s">
         <v>288</v>
@@ -9494,7 +9494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
       <c r="B342" s="36" t="s">
         <v>184</v>
@@ -9505,7 +9505,7 @@
       <c r="F342" s="12"/>
       <c r="G342" s="38"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
       <c r="B343" s="37" t="s">
         <v>185</v>
@@ -9528,7 +9528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
       <c r="B344" s="37" t="s">
         <v>186</v>
@@ -9551,7 +9551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
       <c r="B345" s="37" t="s">
         <v>187</v>
@@ -9574,7 +9574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
       <c r="B346" s="37" t="s">
         <v>188</v>
@@ -9597,7 +9597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
       <c r="B347" s="36" t="s">
         <v>11</v>
@@ -9622,7 +9622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
       <c r="B348" s="36" t="s">
         <v>189</v>
@@ -9633,7 +9633,7 @@
       <c r="F348" s="12"/>
       <c r="G348" s="13"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
       <c r="B349" s="37" t="s">
         <v>190</v>
@@ -9656,7 +9656,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
       <c r="B350" s="37" t="s">
         <v>196</v>
@@ -9679,7 +9679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="21" t="s">
         <v>200</v>
@@ -9702,7 +9702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="B352" s="37" t="s">
         <v>197</v>
@@ -9725,7 +9725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="9"/>
       <c r="B353" s="37" t="s">
         <v>198</v>
@@ -9748,7 +9748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="9"/>
       <c r="B354" s="37" t="s">
         <v>199</v>
@@ -9771,7 +9771,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="B355" s="37" t="s">
         <v>201</v>
@@ -9794,7 +9794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="B356" s="36" t="s">
         <v>11</v>
@@ -9819,7 +9819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>228</v>
       </c>
@@ -9832,7 +9832,7 @@
       <c r="F357" s="12"/>
       <c r="G357" s="35"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>32</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="F358" s="12"/>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="41"/>
       <c r="B359" s="37" t="s">
         <v>191</v>
@@ -9868,7 +9868,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="41"/>
       <c r="B360" s="37" t="s">
         <v>192</v>
@@ -9891,7 +9891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="41"/>
       <c r="B361" s="37" t="s">
         <v>193</v>
@@ -9914,7 +9914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="41"/>
       <c r="B362" s="37" t="s">
         <v>194</v>
@@ -9937,7 +9937,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="41"/>
       <c r="B363" s="36" t="s">
         <v>11</v>
@@ -9962,7 +9962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="42" t="s">
         <v>260</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="F364" s="12"/>
       <c r="G364" s="13"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="45">
         <v>33</v>
       </c>
@@ -9988,7 +9988,7 @@
       <c r="F365" s="12"/>
       <c r="G365" s="13"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="48" t="s">
         <v>234</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="F366" s="12"/>
       <c r="G366" s="13"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="48"/>
       <c r="B367" s="48" t="s">
         <v>236</v>
@@ -10024,7 +10024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="48"/>
       <c r="B368" s="48" t="s">
         <v>237</v>
@@ -10047,7 +10047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="48"/>
       <c r="B369" s="48" t="s">
         <v>238</v>
@@ -10070,7 +10070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="48"/>
       <c r="B370" s="48" t="s">
         <v>239</v>
@@ -10093,7 +10093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="48"/>
       <c r="B371" s="49" t="s">
         <v>240</v>
@@ -10116,7 +10116,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="48"/>
       <c r="B372" s="49" t="s">
         <v>241</v>
@@ -10139,7 +10139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="48"/>
       <c r="B373" s="49" t="s">
         <v>242</v>
@@ -10162,7 +10162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="48"/>
       <c r="B374" s="49" t="s">
         <v>243</v>
@@ -10185,7 +10185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="48"/>
       <c r="B375" s="49" t="s">
         <v>244</v>
@@ -10208,7 +10208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>234</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="F376" s="12"/>
       <c r="G376" s="54"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="48"/>
       <c r="B377" s="49" t="s">
         <v>246</v>
@@ -10244,7 +10244,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="48"/>
       <c r="B378" s="49" t="s">
         <v>242</v>
@@ -10267,7 +10267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="48"/>
       <c r="B379" s="49" t="s">
         <v>244</v>
@@ -10290,7 +10290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="48" t="s">
         <v>234</v>
       </c>
@@ -10298,14 +10298,12 @@
         <v>247</v>
       </c>
       <c r="C380" s="53"/>
-      <c r="D380" s="10">
-        <v>0</v>
-      </c>
+      <c r="D380" s="10"/>
       <c r="E380" s="11"/>
       <c r="F380" s="12"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="48"/>
       <c r="B381" s="48" t="s">
         <v>248</v>
@@ -10328,7 +10326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="48"/>
       <c r="B382" s="48" t="s">
         <v>249</v>
@@ -10351,7 +10349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="48"/>
       <c r="B383" s="48" t="s">
         <v>250</v>
@@ -10374,7 +10372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="48"/>
       <c r="B384" s="48" t="s">
         <v>237</v>
@@ -10397,7 +10395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="48"/>
       <c r="B385" s="48" t="s">
         <v>251</v>
@@ -10420,7 +10418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="48"/>
       <c r="B386" s="48" t="s">
         <v>249</v>
@@ -10443,7 +10441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="48"/>
       <c r="B387" s="48" t="s">
         <v>250</v>
@@ -10466,7 +10464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="48"/>
       <c r="B388" s="48" t="s">
         <v>239</v>
@@ -10489,7 +10487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A389" s="48"/>
       <c r="B389" s="49" t="s">
         <v>254</v>
@@ -10512,7 +10510,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="48"/>
       <c r="B390" s="49" t="s">
         <v>255</v>
@@ -10535,7 +10533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="48"/>
       <c r="B391" s="49" t="s">
         <v>256</v>
@@ -10558,7 +10556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="48"/>
       <c r="B392" s="49" t="s">
         <v>242</v>
@@ -10581,7 +10579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="48"/>
       <c r="B393" s="49" t="s">
         <v>244</v>
@@ -10604,7 +10602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>234</v>
       </c>
@@ -10617,7 +10615,7 @@
       <c r="F394" s="12"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="48"/>
       <c r="B395" s="48" t="s">
         <v>258</v>
@@ -10640,7 +10638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="48"/>
       <c r="B396" s="48" t="s">
         <v>259</v>
@@ -10663,7 +10661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="48"/>
       <c r="B397" s="49" t="s">
         <v>265</v>
@@ -10686,7 +10684,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="48"/>
       <c r="B398" s="49" t="s">
         <v>242</v>
@@ -10709,7 +10707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="48"/>
       <c r="B399" s="49" t="s">
         <v>244</v>
@@ -10732,7 +10730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="42" t="s">
         <v>276</v>
       </c>
@@ -10745,7 +10743,7 @@
       <c r="F400" s="12"/>
       <c r="G400" s="13"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="45">
         <v>34</v>
       </c>
@@ -10758,7 +10756,7 @@
       <c r="F401" s="12"/>
       <c r="G401" s="13"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="48"/>
       <c r="B402" s="58" t="s">
         <v>279</v>
@@ -10781,7 +10779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="48"/>
       <c r="B403" s="58" t="s">
         <v>280</v>
@@ -10804,7 +10802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="48"/>
       <c r="B404" s="58" t="s">
         <v>281</v>
@@ -10827,7 +10825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="48"/>
       <c r="B405" s="58" t="s">
         <v>282</v>
@@ -10850,7 +10848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="59"/>
       <c r="B406" s="36" t="s">
         <v>11</v>
@@ -10895,14 +10893,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>290</v>
       </c>

--- a/public/template/excel/format_laporan_operasi_2021_preview.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="294">
   <si>
     <t>NO</t>
   </si>
@@ -938,6 +938,15 @@
   <si>
     <t>$sheet-&gt;setCellValue('Dxx', $current-&gt;xxx);</t>
   </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>PENYEKATAN</t>
+  </si>
+  <si>
+    <t>a. Motor</t>
+  </si>
 </sst>
 </file>
 
@@ -946,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,8 +1008,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1033,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1247,7 +1275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1334,21 +1362,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1432,6 +1445,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1739,41 +1799,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="53"/>
-    <col min="7" max="7" width="8.88671875" style="53"/>
+    <col min="3" max="5" width="8.88671875" style="48"/>
+    <col min="7" max="7" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="35">
         <v>2000</v>
       </c>
@@ -1786,7 +1846,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1846,10 +1906,10 @@
       <c r="B6" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="C6" s="36">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36">
         <v>0</v>
       </c>
       <c r="E6" s="8">
@@ -1860,7 +1920,7 @@
         <f>SUM(D6-C6)/C6*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1871,10 +1931,10 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
         <v>0</v>
       </c>
       <c r="E7" s="8">
@@ -1885,7 +1945,7 @@
         <f t="shared" ref="F7:F70" si="1">SUM(D7-C7)/C7*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1896,11 +1956,11 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="36">
         <f>SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="36">
         <f>SUM(D6:D7)</f>
         <v>0</v>
       </c>
@@ -1912,7 +1972,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1924,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="52" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1939,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="51" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1953,10 +2013,10 @@
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="41">
-        <v>0</v>
-      </c>
-      <c r="D11" s="41">
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
         <v>0</v>
       </c>
       <c r="E11" s="8">
@@ -1967,7 +2027,7 @@
         <f>SUM(D11-C11)/C11*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1978,10 +2038,10 @@
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="41">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41">
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
         <v>0</v>
       </c>
       <c r="E12" s="8">
@@ -1992,7 +2052,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2001,10 +2061,10 @@
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="41">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41">
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
         <v>0</v>
       </c>
       <c r="E13" s="8">
@@ -2015,7 +2075,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2026,10 +2086,10 @@
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="41">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
         <v>0</v>
       </c>
       <c r="E14" s="8">
@@ -2040,7 +2100,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2051,10 +2111,10 @@
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="41">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41">
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
         <v>0</v>
       </c>
       <c r="E15" s="8">
@@ -2065,7 +2125,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2076,10 +2136,10 @@
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="41">
-        <v>0</v>
-      </c>
-      <c r="D16" s="41">
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
         <v>0</v>
       </c>
       <c r="E16" s="8">
@@ -2090,7 +2150,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2099,10 +2159,10 @@
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="41">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41">
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
         <v>0</v>
       </c>
       <c r="E17" s="8">
@@ -2113,7 +2173,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2122,10 +2182,10 @@
       <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="41">
-        <v>0</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="C18" s="36">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
         <v>0</v>
       </c>
       <c r="E18" s="8">
@@ -2136,7 +2196,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2145,10 +2205,10 @@
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="41">
-        <v>0</v>
-      </c>
-      <c r="D19" s="41">
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
         <v>0</v>
       </c>
       <c r="E19" s="8">
@@ -2159,7 +2219,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2168,10 +2228,10 @@
       <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="41">
-        <v>0</v>
-      </c>
-      <c r="D20" s="41">
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
         <v>0</v>
       </c>
       <c r="E20" s="8">
@@ -2182,7 +2242,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2191,10 +2251,10 @@
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="41">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41">
+      <c r="C21" s="36">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36">
         <v>0</v>
       </c>
       <c r="E21" s="8">
@@ -2205,7 +2265,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2214,10 +2274,10 @@
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="C22" s="36">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
         <v>0</v>
       </c>
       <c r="E22" s="8">
@@ -2228,7 +2288,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2237,10 +2297,10 @@
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="41">
-        <v>0</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="C23" s="36">
+        <v>0</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
       <c r="E23" s="8">
@@ -2251,7 +2311,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2260,10 +2320,10 @@
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="41">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41">
+      <c r="C24" s="36">
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
         <v>0</v>
       </c>
       <c r="E24" s="8">
@@ -2274,7 +2334,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2283,10 +2343,10 @@
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="41">
-        <v>0</v>
-      </c>
-      <c r="D25" s="41">
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
         <v>0</v>
       </c>
       <c r="E25" s="8">
@@ -2297,7 +2357,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2308,10 +2368,10 @@
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="41">
-        <v>0</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="C26" s="36">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
         <v>0</v>
       </c>
       <c r="E26" s="8">
@@ -2322,7 +2382,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2333,10 +2393,10 @@
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="41">
-        <v>0</v>
-      </c>
-      <c r="D27" s="41">
+      <c r="C27" s="36">
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
         <v>0</v>
       </c>
       <c r="E27" s="8">
@@ -2347,7 +2407,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2358,11 +2418,11 @@
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="36">
         <f>SUM(C11:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="36">
         <f>SUM(D11:D27)</f>
         <v>0</v>
       </c>
@@ -2374,7 +2434,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2386,20 +2446,20 @@
         <v>32</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="54"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="41">
-        <v>0</v>
-      </c>
-      <c r="D30" s="41">
+      <c r="C30" s="36">
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
         <v>0</v>
       </c>
       <c r="E30" s="8">
@@ -2410,7 +2470,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2419,10 +2479,10 @@
       <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="41">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41">
+      <c r="C31" s="36">
+        <v>0</v>
+      </c>
+      <c r="D31" s="36">
         <v>0</v>
       </c>
       <c r="E31" s="8">
@@ -2433,7 +2493,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2442,10 +2502,10 @@
       <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="41">
-        <v>0</v>
-      </c>
-      <c r="D32" s="41">
+      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
         <v>0</v>
       </c>
       <c r="E32" s="8">
@@ -2456,7 +2516,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2465,10 +2525,10 @@
       <c r="B33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="41">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41">
+      <c r="C33" s="36">
+        <v>0</v>
+      </c>
+      <c r="D33" s="36">
         <v>0</v>
       </c>
       <c r="E33" s="8">
@@ -2479,7 +2539,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2488,10 +2548,10 @@
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="41">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41">
+      <c r="C34" s="36">
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
         <v>0</v>
       </c>
       <c r="E34" s="8">
@@ -2502,7 +2562,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2511,10 +2571,10 @@
       <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="41">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41">
+      <c r="C35" s="36">
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
         <v>0</v>
       </c>
       <c r="E35" s="8">
@@ -2525,7 +2585,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2534,10 +2594,10 @@
       <c r="B36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="41">
-        <v>0</v>
-      </c>
-      <c r="D36" s="41">
+      <c r="C36" s="36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
         <v>0</v>
       </c>
       <c r="E36" s="8">
@@ -2548,7 +2608,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2557,10 +2617,10 @@
       <c r="B37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="41">
-        <v>0</v>
-      </c>
-      <c r="D37" s="41">
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
         <v>0</v>
       </c>
       <c r="E37" s="8">
@@ -2571,7 +2631,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2580,10 +2640,10 @@
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="41">
-        <v>0</v>
-      </c>
-      <c r="D38" s="41">
+      <c r="C38" s="36">
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
         <v>0</v>
       </c>
       <c r="E38" s="8">
@@ -2594,7 +2654,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2603,10 +2663,10 @@
       <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="41">
-        <v>0</v>
-      </c>
-      <c r="D39" s="41">
+      <c r="C39" s="36">
+        <v>0</v>
+      </c>
+      <c r="D39" s="36">
         <v>0</v>
       </c>
       <c r="E39" s="8">
@@ -2617,7 +2677,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2626,10 +2686,10 @@
       <c r="B40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="41">
-        <v>0</v>
-      </c>
-      <c r="D40" s="41">
+      <c r="C40" s="36">
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
         <v>0</v>
       </c>
       <c r="E40" s="8">
@@ -2640,7 +2700,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2651,10 +2711,10 @@
       <c r="B41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="41">
+      <c r="C41" s="36">
+        <v>0</v>
+      </c>
+      <c r="D41" s="36">
         <v>0</v>
       </c>
       <c r="E41" s="8">
@@ -2665,7 +2725,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2676,10 +2736,10 @@
       <c r="B42" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="41">
-        <v>0</v>
-      </c>
-      <c r="D42" s="41">
+      <c r="C42" s="36">
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
         <v>0</v>
       </c>
       <c r="E42" s="8">
@@ -2690,7 +2750,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2701,10 +2761,10 @@
       <c r="B43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="41">
-        <v>0</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="C43" s="36">
+        <v>0</v>
+      </c>
+      <c r="D43" s="36">
         <v>0</v>
       </c>
       <c r="E43" s="8">
@@ -2715,7 +2775,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2726,10 +2786,10 @@
       <c r="B44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="41">
-        <v>0</v>
-      </c>
-      <c r="D44" s="41">
+      <c r="C44" s="36">
+        <v>0</v>
+      </c>
+      <c r="D44" s="36">
         <v>0</v>
       </c>
       <c r="E44" s="8">
@@ -2740,7 +2800,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2751,10 +2811,10 @@
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="41">
-        <v>0</v>
-      </c>
-      <c r="D45" s="41">
+      <c r="C45" s="36">
+        <v>0</v>
+      </c>
+      <c r="D45" s="36">
         <v>0</v>
       </c>
       <c r="E45" s="8">
@@ -2765,7 +2825,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2774,10 +2834,10 @@
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="41">
-        <v>0</v>
-      </c>
-      <c r="D46" s="41">
+      <c r="C46" s="36">
+        <v>0</v>
+      </c>
+      <c r="D46" s="36">
         <v>0</v>
       </c>
       <c r="E46" s="8">
@@ -2788,7 +2848,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2799,11 +2859,11 @@
       <c r="B47" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="36">
         <f>SUM(C30:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="36">
         <f>SUM(D30:D46)</f>
         <v>0</v>
       </c>
@@ -2815,7 +2875,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2825,20 +2885,20 @@
         <v>40</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="54"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="57"/>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="41">
-        <v>0</v>
-      </c>
-      <c r="D49" s="41">
+      <c r="C49" s="36">
+        <v>0</v>
+      </c>
+      <c r="D49" s="36">
         <v>0</v>
       </c>
       <c r="E49" s="8">
@@ -2849,7 +2909,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2860,10 +2920,10 @@
       <c r="B50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="41">
-        <v>0</v>
-      </c>
-      <c r="D50" s="41">
+      <c r="C50" s="36">
+        <v>0</v>
+      </c>
+      <c r="D50" s="36">
         <v>0</v>
       </c>
       <c r="E50" s="8">
@@ -2874,7 +2934,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2885,21 +2945,21 @@
       <c r="B51" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="54"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="56"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C52" s="41">
-        <v>0</v>
-      </c>
-      <c r="D52" s="41">
+      <c r="C52" s="36">
+        <v>0</v>
+      </c>
+      <c r="D52" s="36">
         <v>0</v>
       </c>
       <c r="E52" s="8">
@@ -2910,7 +2970,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2919,10 +2979,10 @@
       <c r="B53" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="41">
-        <v>0</v>
-      </c>
-      <c r="D53" s="41">
+      <c r="C53" s="36">
+        <v>0</v>
+      </c>
+      <c r="D53" s="36">
         <v>0</v>
       </c>
       <c r="E53" s="8">
@@ -2933,7 +2993,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2942,10 +3002,10 @@
       <c r="B54" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="41">
-        <v>0</v>
-      </c>
-      <c r="D54" s="41">
+      <c r="C54" s="36">
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
         <v>0</v>
       </c>
       <c r="E54" s="8">
@@ -2956,7 +3016,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2965,11 +3025,11 @@
       <c r="B55" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="36">
         <f>SUM(C52:C54)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="36">
         <f>SUM(D52:D54)</f>
         <v>0</v>
       </c>
@@ -2981,7 +3041,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="57" t="s">
+      <c r="G55" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2993,10 +3053,10 @@
         <v>42</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="54"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="57"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
@@ -3005,10 +3065,10 @@
       <c r="B57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="41">
-        <v>0</v>
-      </c>
-      <c r="D57" s="41">
+      <c r="C57" s="36">
+        <v>0</v>
+      </c>
+      <c r="D57" s="36">
         <v>0</v>
       </c>
       <c r="E57" s="8">
@@ -3019,7 +3079,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3030,10 +3090,10 @@
       <c r="B58" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="41">
-        <v>0</v>
-      </c>
-      <c r="D58" s="41">
+      <c r="C58" s="36">
+        <v>0</v>
+      </c>
+      <c r="D58" s="36">
         <v>0</v>
       </c>
       <c r="E58" s="8">
@@ -3044,7 +3104,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3055,10 +3115,10 @@
       <c r="B59" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="41">
-        <v>0</v>
-      </c>
-      <c r="D59" s="41">
+      <c r="C59" s="36">
+        <v>0</v>
+      </c>
+      <c r="D59" s="36">
         <v>0</v>
       </c>
       <c r="E59" s="8">
@@ -3069,7 +3129,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3080,10 +3140,10 @@
       <c r="B60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="41">
-        <v>0</v>
-      </c>
-      <c r="D60" s="41">
+      <c r="C60" s="36">
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
         <v>0</v>
       </c>
       <c r="E60" s="8">
@@ -3094,7 +3154,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3105,10 +3165,10 @@
       <c r="B61" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="41">
-        <v>0</v>
-      </c>
-      <c r="D61" s="41">
+      <c r="C61" s="36">
+        <v>0</v>
+      </c>
+      <c r="D61" s="36">
         <v>0</v>
       </c>
       <c r="E61" s="8">
@@ -3119,7 +3179,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="G61" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3130,11 +3190,11 @@
       <c r="B62" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="36">
         <f>SUM(C57:C61)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="36">
         <f>SUM(D57:D61)</f>
         <v>0</v>
       </c>
@@ -3146,7 +3206,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="G62" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3158,10 +3218,10 @@
         <v>269</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="54"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="57"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -3170,10 +3230,10 @@
       <c r="B64" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="41">
-        <v>0</v>
-      </c>
-      <c r="D64" s="41">
+      <c r="C64" s="36">
+        <v>0</v>
+      </c>
+      <c r="D64" s="36">
         <v>0</v>
       </c>
       <c r="E64" s="8">
@@ -3184,7 +3244,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="56" t="s">
+      <c r="G64" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3195,10 +3255,10 @@
       <c r="B65" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="41">
-        <v>0</v>
-      </c>
-      <c r="D65" s="41">
+      <c r="C65" s="36">
+        <v>0</v>
+      </c>
+      <c r="D65" s="36">
         <v>0</v>
       </c>
       <c r="E65" s="8">
@@ -3209,7 +3269,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3220,10 +3280,10 @@
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="41">
-        <v>0</v>
-      </c>
-      <c r="D66" s="41">
+      <c r="C66" s="36">
+        <v>0</v>
+      </c>
+      <c r="D66" s="36">
         <v>0</v>
       </c>
       <c r="E66" s="8">
@@ -3234,7 +3294,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="56" t="s">
+      <c r="G66" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3245,10 +3305,10 @@
       <c r="B67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="41">
-        <v>0</v>
-      </c>
-      <c r="D67" s="41">
+      <c r="C67" s="36">
+        <v>0</v>
+      </c>
+      <c r="D67" s="36">
         <v>0</v>
       </c>
       <c r="E67" s="8">
@@ -3259,7 +3319,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="56" t="s">
+      <c r="G67" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3270,10 +3330,10 @@
       <c r="B68" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="41">
-        <v>0</v>
-      </c>
-      <c r="D68" s="41">
+      <c r="C68" s="36">
+        <v>0</v>
+      </c>
+      <c r="D68" s="36">
         <v>0</v>
       </c>
       <c r="E68" s="8">
@@ -3284,7 +3344,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3295,10 +3355,10 @@
       <c r="B69" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="41">
-        <v>0</v>
-      </c>
-      <c r="D69" s="41">
+      <c r="C69" s="36">
+        <v>0</v>
+      </c>
+      <c r="D69" s="36">
         <v>0</v>
       </c>
       <c r="E69" s="8">
@@ -3309,7 +3369,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="G69" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3320,10 +3380,10 @@
       <c r="B70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="41">
-        <v>0</v>
-      </c>
-      <c r="D70" s="41">
+      <c r="C70" s="36">
+        <v>0</v>
+      </c>
+      <c r="D70" s="36">
         <v>0</v>
       </c>
       <c r="E70" s="8">
@@ -3334,7 +3394,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="56" t="s">
+      <c r="G70" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3345,11 +3405,11 @@
       <c r="B71" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="36">
         <f>SUM(C64:C69)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="36">
         <f>SUM(D64:D69)</f>
         <v>0</v>
       </c>
@@ -3361,7 +3421,7 @@
         <f t="shared" ref="F71:F134" si="4">SUM(D71-C71)/C71*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" s="57" t="s">
+      <c r="G71" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3373,20 +3433,20 @@
         <v>56</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="54"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="57"/>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="41">
-        <v>0</v>
-      </c>
-      <c r="D73" s="41">
+      <c r="C73" s="36">
+        <v>0</v>
+      </c>
+      <c r="D73" s="36">
         <v>0</v>
       </c>
       <c r="E73" s="8">
@@ -3397,7 +3457,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G73" s="56" t="s">
+      <c r="G73" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3408,10 +3468,10 @@
       <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="41">
-        <v>0</v>
-      </c>
-      <c r="D74" s="41">
+      <c r="C74" s="36">
+        <v>0</v>
+      </c>
+      <c r="D74" s="36">
         <v>0</v>
       </c>
       <c r="E74" s="8">
@@ -3422,7 +3482,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="56" t="s">
+      <c r="G74" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3433,10 +3493,10 @@
       <c r="B75" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="41">
-        <v>0</v>
-      </c>
-      <c r="D75" s="41">
+      <c r="C75" s="36">
+        <v>0</v>
+      </c>
+      <c r="D75" s="36">
         <v>0</v>
       </c>
       <c r="E75" s="8">
@@ -3447,7 +3507,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G75" s="56" t="s">
+      <c r="G75" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3458,10 +3518,10 @@
       <c r="B76" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="41">
-        <v>0</v>
-      </c>
-      <c r="D76" s="41">
+      <c r="C76" s="36">
+        <v>0</v>
+      </c>
+      <c r="D76" s="36">
         <v>0</v>
       </c>
       <c r="E76" s="8">
@@ -3472,7 +3532,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3483,10 +3543,10 @@
       <c r="B77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="41">
-        <v>0</v>
-      </c>
-      <c r="D77" s="41">
+      <c r="C77" s="36">
+        <v>0</v>
+      </c>
+      <c r="D77" s="36">
         <v>0</v>
       </c>
       <c r="E77" s="8">
@@ -3497,7 +3557,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="56" t="s">
+      <c r="G77" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3506,10 +3566,10 @@
       <c r="B78" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="41">
-        <v>0</v>
-      </c>
-      <c r="D78" s="41">
+      <c r="C78" s="36">
+        <v>0</v>
+      </c>
+      <c r="D78" s="36">
         <v>0</v>
       </c>
       <c r="E78" s="8">
@@ -3520,7 +3580,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3529,10 +3589,10 @@
       <c r="B79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="41">
-        <v>0</v>
-      </c>
-      <c r="D79" s="41">
+      <c r="C79" s="36">
+        <v>0</v>
+      </c>
+      <c r="D79" s="36">
         <v>0</v>
       </c>
       <c r="E79" s="8">
@@ -3543,7 +3603,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="56" t="s">
+      <c r="G79" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3552,10 +3612,10 @@
       <c r="B80" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="41">
-        <v>0</v>
-      </c>
-      <c r="D80" s="41">
+      <c r="C80" s="36">
+        <v>0</v>
+      </c>
+      <c r="D80" s="36">
         <v>0</v>
       </c>
       <c r="E80" s="8">
@@ -3566,7 +3626,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3577,10 +3637,10 @@
       <c r="B81" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="41">
-        <v>0</v>
-      </c>
-      <c r="D81" s="41">
+      <c r="C81" s="36">
+        <v>0</v>
+      </c>
+      <c r="D81" s="36">
         <v>0</v>
       </c>
       <c r="E81" s="8">
@@ -3591,7 +3651,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G81" s="56" t="s">
+      <c r="G81" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3600,10 +3660,10 @@
       <c r="B82" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="41">
-        <v>0</v>
-      </c>
-      <c r="D82" s="41">
+      <c r="C82" s="36">
+        <v>0</v>
+      </c>
+      <c r="D82" s="36">
         <v>0</v>
       </c>
       <c r="E82" s="8">
@@ -3614,7 +3674,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G82" s="56" t="s">
+      <c r="G82" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3623,10 +3683,10 @@
       <c r="B83" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="41">
-        <v>0</v>
-      </c>
-      <c r="D83" s="41">
+      <c r="C83" s="36">
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
         <v>0</v>
       </c>
       <c r="E83" s="8">
@@ -3637,7 +3697,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" s="56" t="s">
+      <c r="G83" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3648,11 +3708,11 @@
       <c r="B84" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C84" s="36">
         <f>SUM(C73:C83)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="41">
+      <c r="D84" s="36">
         <f>SUM(D73:D83)</f>
         <v>0</v>
       </c>
@@ -3664,7 +3724,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G84" s="57" t="s">
+      <c r="G84" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3676,10 +3736,10 @@
         <v>69</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="54"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="57"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -3688,10 +3748,10 @@
       <c r="B86" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="41">
-        <v>0</v>
-      </c>
-      <c r="D86" s="41">
+      <c r="C86" s="36">
+        <v>0</v>
+      </c>
+      <c r="D86" s="36">
         <v>0</v>
       </c>
       <c r="E86" s="8">
@@ -3702,7 +3762,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3713,10 +3773,10 @@
       <c r="B87" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="41">
-        <v>0</v>
-      </c>
-      <c r="D87" s="41">
+      <c r="C87" s="36">
+        <v>0</v>
+      </c>
+      <c r="D87" s="36">
         <v>0</v>
       </c>
       <c r="E87" s="8">
@@ -3727,7 +3787,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G87" s="56" t="s">
+      <c r="G87" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3738,10 +3798,10 @@
       <c r="B88" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="41">
-        <v>0</v>
-      </c>
-      <c r="D88" s="41">
+      <c r="C88" s="36">
+        <v>0</v>
+      </c>
+      <c r="D88" s="36">
         <v>0</v>
       </c>
       <c r="E88" s="8">
@@ -3752,7 +3812,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G88" s="56" t="s">
+      <c r="G88" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3763,10 +3823,10 @@
       <c r="B89" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="41">
-        <v>0</v>
-      </c>
-      <c r="D89" s="41">
+      <c r="C89" s="36">
+        <v>0</v>
+      </c>
+      <c r="D89" s="36">
         <v>0</v>
       </c>
       <c r="E89" s="8">
@@ -3777,7 +3837,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3788,10 +3848,10 @@
       <c r="B90" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="41">
-        <v>0</v>
-      </c>
-      <c r="D90" s="41">
+      <c r="C90" s="36">
+        <v>0</v>
+      </c>
+      <c r="D90" s="36">
         <v>0</v>
       </c>
       <c r="E90" s="8">
@@ -3802,7 +3862,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G90" s="56" t="s">
+      <c r="G90" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3813,10 +3873,10 @@
       <c r="B91" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="41">
-        <v>0</v>
-      </c>
-      <c r="D91" s="41">
+      <c r="C91" s="36">
+        <v>0</v>
+      </c>
+      <c r="D91" s="36">
         <v>0</v>
       </c>
       <c r="E91" s="8">
@@ -3827,7 +3887,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G91" s="56" t="s">
+      <c r="G91" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3836,10 +3896,10 @@
       <c r="B92" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="41">
-        <v>0</v>
-      </c>
-      <c r="D92" s="41">
+      <c r="C92" s="36">
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
         <v>0</v>
       </c>
       <c r="E92" s="8">
@@ -3850,7 +3910,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="56" t="s">
+      <c r="G92" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3861,10 +3921,10 @@
       <c r="B93" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="41">
-        <v>0</v>
-      </c>
-      <c r="D93" s="41">
+      <c r="C93" s="36">
+        <v>0</v>
+      </c>
+      <c r="D93" s="36">
         <v>0</v>
       </c>
       <c r="E93" s="8">
@@ -3875,7 +3935,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G93" s="56" t="s">
+      <c r="G93" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3886,10 +3946,10 @@
       <c r="B94" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="41">
-        <v>0</v>
-      </c>
-      <c r="D94" s="41">
+      <c r="C94" s="36">
+        <v>0</v>
+      </c>
+      <c r="D94" s="36">
         <v>0</v>
       </c>
       <c r="E94" s="8">
@@ -3900,7 +3960,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="G94" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3911,10 +3971,10 @@
       <c r="B95" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="41">
-        <v>0</v>
-      </c>
-      <c r="D95" s="41">
+      <c r="C95" s="36">
+        <v>0</v>
+      </c>
+      <c r="D95" s="36">
         <v>0</v>
       </c>
       <c r="E95" s="8">
@@ -3925,7 +3985,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3936,11 +3996,11 @@
       <c r="B96" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="41">
+      <c r="C96" s="36">
         <f>SUM(C86:C94)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96" s="36">
         <f>SUM(D86:D94)</f>
         <v>0</v>
       </c>
@@ -3952,7 +4012,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G96" s="57" t="s">
+      <c r="G96" s="52" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3964,10 +4024,10 @@
         <v>81</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="54"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="57"/>
+      <c r="G97" s="52"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
@@ -3975,20 +4035,20 @@
         <v>121</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="54"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="57"/>
+      <c r="G98" s="52"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="41">
-        <v>0</v>
-      </c>
-      <c r="D99" s="41">
+      <c r="C99" s="36">
+        <v>0</v>
+      </c>
+      <c r="D99" s="36">
         <v>0</v>
       </c>
       <c r="E99" s="8">
@@ -3999,7 +4059,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G99" s="56" t="s">
+      <c r="G99" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4008,10 +4068,10 @@
       <c r="B100" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="41">
-        <v>0</v>
-      </c>
-      <c r="D100" s="41">
+      <c r="C100" s="36">
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
         <v>0</v>
       </c>
       <c r="E100" s="8">
@@ -4022,7 +4082,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G100" s="56" t="s">
+      <c r="G100" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4031,10 +4091,10 @@
       <c r="B101" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="41">
-        <v>0</v>
-      </c>
-      <c r="D101" s="41">
+      <c r="C101" s="36">
+        <v>0</v>
+      </c>
+      <c r="D101" s="36">
         <v>0</v>
       </c>
       <c r="E101" s="8">
@@ -4045,7 +4105,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G101" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4054,10 +4114,10 @@
       <c r="B102" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="41">
-        <v>0</v>
-      </c>
-      <c r="D102" s="41">
+      <c r="C102" s="36">
+        <v>0</v>
+      </c>
+      <c r="D102" s="36">
         <v>0</v>
       </c>
       <c r="E102" s="8">
@@ -4068,7 +4128,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G102" s="56" t="s">
+      <c r="G102" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4077,10 +4137,10 @@
       <c r="B103" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="41">
-        <v>0</v>
-      </c>
-      <c r="D103" s="41">
+      <c r="C103" s="36">
+        <v>0</v>
+      </c>
+      <c r="D103" s="36">
         <v>0</v>
       </c>
       <c r="E103" s="8">
@@ -4091,7 +4151,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G103" s="56" t="s">
+      <c r="G103" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4100,11 +4160,11 @@
       <c r="B104" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104" s="36">
         <f>SUM(C99:C103)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="41">
+      <c r="D104" s="36">
         <f>SUM(D99:D103)</f>
         <v>0</v>
       </c>
@@ -4116,7 +4176,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="57" t="s">
+      <c r="G104" s="52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4125,21 +4185,21 @@
       <c r="B105" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="54"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="8"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="57"/>
+      <c r="G105" s="52"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="41">
-        <v>0</v>
-      </c>
-      <c r="D106" s="41">
+      <c r="C106" s="36">
+        <v>0</v>
+      </c>
+      <c r="D106" s="36">
         <v>0</v>
       </c>
       <c r="E106" s="8">
@@ -4150,7 +4210,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G106" s="56" t="s">
+      <c r="G106" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4159,10 +4219,10 @@
       <c r="B107" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="41">
-        <v>0</v>
-      </c>
-      <c r="D107" s="41">
+      <c r="C107" s="36">
+        <v>0</v>
+      </c>
+      <c r="D107" s="36">
         <v>0</v>
       </c>
       <c r="E107" s="8">
@@ -4173,7 +4233,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G107" s="56" t="s">
+      <c r="G107" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4182,10 +4242,10 @@
       <c r="B108" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="41">
-        <v>0</v>
-      </c>
-      <c r="D108" s="41">
+      <c r="C108" s="36">
+        <v>0</v>
+      </c>
+      <c r="D108" s="36">
         <v>0</v>
       </c>
       <c r="E108" s="8">
@@ -4196,7 +4256,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G108" s="56" t="s">
+      <c r="G108" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4205,10 +4265,10 @@
       <c r="B109" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="41">
-        <v>0</v>
-      </c>
-      <c r="D109" s="41">
+      <c r="C109" s="36">
+        <v>0</v>
+      </c>
+      <c r="D109" s="36">
         <v>0</v>
       </c>
       <c r="E109" s="8">
@@ -4219,7 +4279,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G109" s="56" t="s">
+      <c r="G109" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4228,11 +4288,11 @@
       <c r="B110" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="41">
+      <c r="C110" s="36">
         <f>SUM(C106:C109)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="41">
+      <c r="D110" s="36">
         <f>SUM(D106:D109)</f>
         <v>0</v>
       </c>
@@ -4244,7 +4304,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G110" s="57" t="s">
+      <c r="G110" s="52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4254,20 +4314,20 @@
         <v>128</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="54"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="8"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="57"/>
+      <c r="G111" s="52"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C112" s="41">
-        <v>0</v>
-      </c>
-      <c r="D112" s="41">
+      <c r="C112" s="36">
+        <v>0</v>
+      </c>
+      <c r="D112" s="36">
         <v>0</v>
       </c>
       <c r="E112" s="8">
@@ -4278,7 +4338,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G112" s="56" t="s">
+      <c r="G112" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4287,10 +4347,10 @@
       <c r="B113" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C113" s="41">
-        <v>0</v>
-      </c>
-      <c r="D113" s="41">
+      <c r="C113" s="36">
+        <v>0</v>
+      </c>
+      <c r="D113" s="36">
         <v>0</v>
       </c>
       <c r="E113" s="8">
@@ -4301,7 +4361,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G113" s="56" t="s">
+      <c r="G113" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4310,10 +4370,10 @@
       <c r="B114" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="41">
-        <v>0</v>
-      </c>
-      <c r="D114" s="41">
+      <c r="C114" s="36">
+        <v>0</v>
+      </c>
+      <c r="D114" s="36">
         <v>0</v>
       </c>
       <c r="E114" s="8">
@@ -4324,7 +4384,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G114" s="56" t="s">
+      <c r="G114" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4333,10 +4393,10 @@
       <c r="B115" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="41">
-        <v>0</v>
-      </c>
-      <c r="D115" s="41">
+      <c r="C115" s="36">
+        <v>0</v>
+      </c>
+      <c r="D115" s="36">
         <v>0</v>
       </c>
       <c r="E115" s="8">
@@ -4347,7 +4407,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G115" s="56" t="s">
+      <c r="G115" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4356,11 +4416,11 @@
       <c r="B116" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="41">
+      <c r="C116" s="36">
         <f>SUM(C112:C115)</f>
         <v>0</v>
       </c>
-      <c r="D116" s="41">
+      <c r="D116" s="36">
         <f>SUM(D112:D115)</f>
         <v>0</v>
       </c>
@@ -4372,7 +4432,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G116" s="57" t="s">
+      <c r="G116" s="52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4384,10 +4444,10 @@
         <v>91</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="54"/>
+      <c r="D117" s="49"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="57"/>
+      <c r="G117" s="52"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
@@ -4397,10 +4457,10 @@
         <v>92</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="54"/>
+      <c r="D118" s="49"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="57"/>
+      <c r="G118" s="52"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
@@ -4409,10 +4469,10 @@
       <c r="B119" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C119" s="41">
-        <v>0</v>
-      </c>
-      <c r="D119" s="41">
+      <c r="C119" s="36">
+        <v>0</v>
+      </c>
+      <c r="D119" s="36">
         <v>0</v>
       </c>
       <c r="E119" s="8">
@@ -4423,7 +4483,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G119" s="56" t="s">
+      <c r="G119" s="51" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4434,10 +4494,10 @@
       <c r="B120" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C120" s="41">
-        <v>0</v>
-      </c>
-      <c r="D120" s="41">
+      <c r="C120" s="36">
+        <v>0</v>
+      </c>
+      <c r="D120" s="36">
         <v>0</v>
       </c>
       <c r="E120" s="8">
@@ -4448,7 +4508,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G120" s="56" t="s">
+      <c r="G120" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4459,10 +4519,10 @@
       <c r="B121" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="41">
-        <v>0</v>
-      </c>
-      <c r="D121" s="41">
+      <c r="C121" s="36">
+        <v>0</v>
+      </c>
+      <c r="D121" s="36">
         <v>0</v>
       </c>
       <c r="E121" s="8">
@@ -4473,7 +4533,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G121" s="56" t="s">
+      <c r="G121" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4484,10 +4544,10 @@
       <c r="B122" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C122" s="41">
-        <v>0</v>
-      </c>
-      <c r="D122" s="41">
+      <c r="C122" s="36">
+        <v>0</v>
+      </c>
+      <c r="D122" s="36">
         <v>0</v>
       </c>
       <c r="E122" s="8">
@@ -4498,7 +4558,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G122" s="56" t="s">
+      <c r="G122" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4509,10 +4569,10 @@
       <c r="B123" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="42">
+      <c r="C123" s="37">
         <v>100000000</v>
       </c>
-      <c r="D123" s="42">
+      <c r="D123" s="37">
         <v>100000000</v>
       </c>
       <c r="E123" s="8">
@@ -4523,7 +4583,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G123" s="56" t="s">
+      <c r="G123" s="51" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4535,20 +4595,20 @@
         <v>170</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="54"/>
+      <c r="D124" s="49"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="56"/>
+      <c r="G124" s="51"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C125" s="41">
-        <v>0</v>
-      </c>
-      <c r="D125" s="41">
+      <c r="C125" s="36">
+        <v>0</v>
+      </c>
+      <c r="D125" s="36">
         <v>0</v>
       </c>
       <c r="E125" s="8">
@@ -4559,7 +4619,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G125" s="56" t="s">
+      <c r="G125" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4568,10 +4628,10 @@
       <c r="B126" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C126" s="41">
-        <v>0</v>
-      </c>
-      <c r="D126" s="41">
+      <c r="C126" s="36">
+        <v>0</v>
+      </c>
+      <c r="D126" s="36">
         <v>0</v>
       </c>
       <c r="E126" s="8">
@@ -4582,7 +4642,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G126" s="56" t="s">
+      <c r="G126" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4591,10 +4651,10 @@
       <c r="B127" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C127" s="41">
-        <v>0</v>
-      </c>
-      <c r="D127" s="41">
+      <c r="C127" s="36">
+        <v>0</v>
+      </c>
+      <c r="D127" s="36">
         <v>0</v>
       </c>
       <c r="E127" s="8">
@@ -4605,7 +4665,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G127" s="56" t="s">
+      <c r="G127" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4614,11 +4674,11 @@
       <c r="B128" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="41">
+      <c r="C128" s="36">
         <f>SUM(C125:C127)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="41">
+      <c r="D128" s="36">
         <f>SUM(D125:D127)</f>
         <v>0</v>
       </c>
@@ -4630,7 +4690,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G128" s="57" t="s">
+      <c r="G128" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4641,11 +4701,11 @@
       <c r="B129" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C129" s="43"/>
-      <c r="D129" s="54"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="49"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="43"/>
+      <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
@@ -4654,10 +4714,10 @@
       <c r="B130" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C130" s="41">
-        <v>0</v>
-      </c>
-      <c r="D130" s="41">
+      <c r="C130" s="36">
+        <v>0</v>
+      </c>
+      <c r="D130" s="36">
         <v>0</v>
       </c>
       <c r="E130" s="8">
@@ -4668,7 +4728,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G130" s="56" t="s">
+      <c r="G130" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4679,10 +4739,10 @@
       <c r="B131" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C131" s="41">
-        <v>0</v>
-      </c>
-      <c r="D131" s="41">
+      <c r="C131" s="36">
+        <v>0</v>
+      </c>
+      <c r="D131" s="36">
         <v>0</v>
       </c>
       <c r="E131" s="8">
@@ -4693,7 +4753,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G131" s="56" t="s">
+      <c r="G131" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4704,10 +4764,10 @@
       <c r="B132" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C132" s="41">
-        <v>0</v>
-      </c>
-      <c r="D132" s="41">
+      <c r="C132" s="36">
+        <v>0</v>
+      </c>
+      <c r="D132" s="36">
         <v>0</v>
       </c>
       <c r="E132" s="8">
@@ -4718,7 +4778,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G132" s="58" t="s">
+      <c r="G132" s="53" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4729,10 +4789,10 @@
       <c r="B133" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="41">
-        <v>0</v>
-      </c>
-      <c r="D133" s="41">
+      <c r="C133" s="36">
+        <v>0</v>
+      </c>
+      <c r="D133" s="36">
         <v>0</v>
       </c>
       <c r="E133" s="8">
@@ -4743,7 +4803,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G133" s="56" t="s">
+      <c r="G133" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4754,10 +4814,10 @@
       <c r="B134" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="41">
-        <v>0</v>
-      </c>
-      <c r="D134" s="41">
+      <c r="C134" s="36">
+        <v>0</v>
+      </c>
+      <c r="D134" s="36">
         <v>0</v>
       </c>
       <c r="E134" s="8">
@@ -4768,7 +4828,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G134" s="56" t="s">
+      <c r="G134" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4779,10 +4839,10 @@
       <c r="B135" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="41">
-        <v>0</v>
-      </c>
-      <c r="D135" s="41">
+      <c r="C135" s="36">
+        <v>0</v>
+      </c>
+      <c r="D135" s="36">
         <v>0</v>
       </c>
       <c r="E135" s="8">
@@ -4793,7 +4853,7 @@
         <f t="shared" ref="F135:F198" si="12">SUM(D135-C135)/C135*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G135" s="56" t="s">
+      <c r="G135" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4804,10 +4864,10 @@
       <c r="B136" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C136" s="41">
-        <v>0</v>
-      </c>
-      <c r="D136" s="41">
+      <c r="C136" s="36">
+        <v>0</v>
+      </c>
+      <c r="D136" s="36">
         <v>0</v>
       </c>
       <c r="E136" s="8">
@@ -4818,7 +4878,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="56" t="s">
+      <c r="G136" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4829,11 +4889,11 @@
       <c r="B137" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C137" s="41">
+      <c r="C137" s="36">
         <f>SUM(C130:C136)</f>
         <v>0</v>
       </c>
-      <c r="D137" s="41">
+      <c r="D137" s="36">
         <f>SUM(D130:D136)</f>
         <v>0</v>
       </c>
@@ -4845,7 +4905,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G137" s="57" t="s">
+      <c r="G137" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4856,21 +4916,21 @@
       <c r="B138" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="54"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="43"/>
+      <c r="G138" s="38"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C139" s="41">
-        <v>0</v>
-      </c>
-      <c r="D139" s="41">
+      <c r="C139" s="36">
+        <v>0</v>
+      </c>
+      <c r="D139" s="36">
         <v>0</v>
       </c>
       <c r="E139" s="8">
@@ -4881,7 +4941,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G139" s="56" t="s">
+      <c r="G139" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4890,10 +4950,10 @@
       <c r="B140" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C140" s="41">
-        <v>0</v>
-      </c>
-      <c r="D140" s="41">
+      <c r="C140" s="36">
+        <v>0</v>
+      </c>
+      <c r="D140" s="36">
         <v>0</v>
       </c>
       <c r="E140" s="8">
@@ -4904,7 +4964,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G140" s="56" t="s">
+      <c r="G140" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4913,10 +4973,10 @@
       <c r="B141" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C141" s="41">
-        <v>0</v>
-      </c>
-      <c r="D141" s="41">
+      <c r="C141" s="36">
+        <v>0</v>
+      </c>
+      <c r="D141" s="36">
         <v>0</v>
       </c>
       <c r="E141" s="8">
@@ -4927,7 +4987,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="56" t="s">
+      <c r="G141" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4936,10 +4996,10 @@
       <c r="B142" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="41">
-        <v>0</v>
-      </c>
-      <c r="D142" s="41">
+      <c r="C142" s="36">
+        <v>0</v>
+      </c>
+      <c r="D142" s="36">
         <v>0</v>
       </c>
       <c r="E142" s="8">
@@ -4950,7 +5010,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G142" s="56" t="s">
+      <c r="G142" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4959,10 +5019,10 @@
       <c r="B143" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="41">
-        <v>0</v>
-      </c>
-      <c r="D143" s="41">
+      <c r="C143" s="36">
+        <v>0</v>
+      </c>
+      <c r="D143" s="36">
         <v>0</v>
       </c>
       <c r="E143" s="8">
@@ -4973,7 +5033,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G143" s="56" t="s">
+      <c r="G143" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4982,10 +5042,10 @@
       <c r="B144" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C144" s="41">
-        <v>0</v>
-      </c>
-      <c r="D144" s="41">
+      <c r="C144" s="36">
+        <v>0</v>
+      </c>
+      <c r="D144" s="36">
         <v>0</v>
       </c>
       <c r="E144" s="8">
@@ -4996,7 +5056,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G144" s="56" t="s">
+      <c r="G144" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5007,10 +5067,10 @@
       <c r="B145" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="41">
-        <v>0</v>
-      </c>
-      <c r="D145" s="41">
+      <c r="C145" s="36">
+        <v>0</v>
+      </c>
+      <c r="D145" s="36">
         <v>0</v>
       </c>
       <c r="E145" s="8">
@@ -5021,7 +5081,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G145" s="56" t="s">
+      <c r="G145" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5032,10 +5092,10 @@
       <c r="B146" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C146" s="41">
-        <v>0</v>
-      </c>
-      <c r="D146" s="41">
+      <c r="C146" s="36">
+        <v>0</v>
+      </c>
+      <c r="D146" s="36">
         <v>0</v>
       </c>
       <c r="E146" s="8">
@@ -5046,7 +5106,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G146" s="56" t="s">
+      <c r="G146" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5057,10 +5117,10 @@
       <c r="B147" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C147" s="41">
-        <v>0</v>
-      </c>
-      <c r="D147" s="41">
+      <c r="C147" s="36">
+        <v>0</v>
+      </c>
+      <c r="D147" s="36">
         <v>0</v>
       </c>
       <c r="E147" s="8">
@@ -5071,7 +5131,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G147" s="56" t="s">
+      <c r="G147" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5082,10 +5142,10 @@
       <c r="B148" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C148" s="41">
-        <v>0</v>
-      </c>
-      <c r="D148" s="41">
+      <c r="C148" s="36">
+        <v>0</v>
+      </c>
+      <c r="D148" s="36">
         <v>0</v>
       </c>
       <c r="E148" s="8">
@@ -5096,7 +5156,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G148" s="56" t="s">
+      <c r="G148" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5107,10 +5167,10 @@
       <c r="B149" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="41">
-        <v>0</v>
-      </c>
-      <c r="D149" s="41">
+      <c r="C149" s="36">
+        <v>0</v>
+      </c>
+      <c r="D149" s="36">
         <v>0</v>
       </c>
       <c r="E149" s="8">
@@ -5121,7 +5181,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G149" s="59" t="s">
+      <c r="G149" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5132,11 +5192,11 @@
       <c r="B150" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C150" s="41">
+      <c r="C150" s="36">
         <f>SUM(C139:C149)</f>
         <v>0</v>
       </c>
-      <c r="D150" s="41">
+      <c r="D150" s="36">
         <f>SUM(D139:D149)</f>
         <v>0</v>
       </c>
@@ -5148,7 +5208,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G150" s="57" t="s">
+      <c r="G150" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5159,11 +5219,11 @@
       <c r="B151" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C151" s="43"/>
-      <c r="D151" s="54"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="49"/>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="43"/>
+      <c r="G151" s="38"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
@@ -5172,10 +5232,10 @@
       <c r="B152" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C152" s="41">
-        <v>0</v>
-      </c>
-      <c r="D152" s="41">
+      <c r="C152" s="36">
+        <v>0</v>
+      </c>
+      <c r="D152" s="36">
         <v>0</v>
       </c>
       <c r="E152" s="8">
@@ -5186,7 +5246,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G152" s="56" t="s">
+      <c r="G152" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5197,10 +5257,10 @@
       <c r="B153" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C153" s="41">
-        <v>0</v>
-      </c>
-      <c r="D153" s="41">
+      <c r="C153" s="36">
+        <v>0</v>
+      </c>
+      <c r="D153" s="36">
         <v>0</v>
       </c>
       <c r="E153" s="8">
@@ -5211,7 +5271,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G153" s="56" t="s">
+      <c r="G153" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5222,10 +5282,10 @@
       <c r="B154" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C154" s="41">
-        <v>0</v>
-      </c>
-      <c r="D154" s="41">
+      <c r="C154" s="36">
+        <v>0</v>
+      </c>
+      <c r="D154" s="36">
         <v>0</v>
       </c>
       <c r="E154" s="8">
@@ -5236,7 +5296,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G154" s="56" t="s">
+      <c r="G154" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5247,10 +5307,10 @@
       <c r="B155" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C155" s="41">
-        <v>0</v>
-      </c>
-      <c r="D155" s="41">
+      <c r="C155" s="36">
+        <v>0</v>
+      </c>
+      <c r="D155" s="36">
         <v>0</v>
       </c>
       <c r="E155" s="8">
@@ -5261,7 +5321,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G155" s="56" t="s">
+      <c r="G155" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5272,10 +5332,10 @@
       <c r="B156" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C156" s="41">
-        <v>0</v>
-      </c>
-      <c r="D156" s="41">
+      <c r="C156" s="36">
+        <v>0</v>
+      </c>
+      <c r="D156" s="36">
         <v>0</v>
       </c>
       <c r="E156" s="8">
@@ -5286,7 +5346,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G156" s="56" t="s">
+      <c r="G156" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5297,10 +5357,10 @@
       <c r="B157" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C157" s="41">
-        <v>0</v>
-      </c>
-      <c r="D157" s="41">
+      <c r="C157" s="36">
+        <v>0</v>
+      </c>
+      <c r="D157" s="36">
         <v>0</v>
       </c>
       <c r="E157" s="8">
@@ -5311,7 +5371,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G157" s="56" t="s">
+      <c r="G157" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5320,10 +5380,10 @@
       <c r="B158" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C158" s="41">
-        <v>0</v>
-      </c>
-      <c r="D158" s="41">
+      <c r="C158" s="36">
+        <v>0</v>
+      </c>
+      <c r="D158" s="36">
         <v>0</v>
       </c>
       <c r="E158" s="8">
@@ -5334,7 +5394,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G158" s="56" t="s">
+      <c r="G158" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5345,10 +5405,10 @@
       <c r="B159" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="41">
-        <v>0</v>
-      </c>
-      <c r="D159" s="41">
+      <c r="C159" s="36">
+        <v>0</v>
+      </c>
+      <c r="D159" s="36">
         <v>0</v>
       </c>
       <c r="E159" s="8">
@@ -5359,7 +5419,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G159" s="56" t="s">
+      <c r="G159" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5368,10 +5428,10 @@
       <c r="B160" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C160" s="41">
-        <v>0</v>
-      </c>
-      <c r="D160" s="41">
+      <c r="C160" s="36">
+        <v>0</v>
+      </c>
+      <c r="D160" s="36">
         <v>0</v>
       </c>
       <c r="E160" s="8">
@@ -5382,7 +5442,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G160" s="56" t="s">
+      <c r="G160" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5393,10 +5453,10 @@
       <c r="B161" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C161" s="41">
-        <v>0</v>
-      </c>
-      <c r="D161" s="41">
+      <c r="C161" s="36">
+        <v>0</v>
+      </c>
+      <c r="D161" s="36">
         <v>0</v>
       </c>
       <c r="E161" s="8">
@@ -5407,7 +5467,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G161" s="56" t="s">
+      <c r="G161" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5418,11 +5478,11 @@
       <c r="B162" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C162" s="41">
+      <c r="C162" s="36">
         <f>SUM(C152:C161)</f>
         <v>0</v>
       </c>
-      <c r="D162" s="41">
+      <c r="D162" s="36">
         <f>SUM(D152:D161)</f>
         <v>0</v>
       </c>
@@ -5434,7 +5494,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G162" s="57" t="s">
+      <c r="G162" s="52" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5446,10 +5506,10 @@
         <v>103</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="54"/>
+      <c r="D163" s="49"/>
       <c r="E163" s="8"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="57"/>
+      <c r="G163" s="52"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
@@ -5458,10 +5518,10 @@
       <c r="B164" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="41">
-        <v>0</v>
-      </c>
-      <c r="D164" s="41">
+      <c r="C164" s="36">
+        <v>0</v>
+      </c>
+      <c r="D164" s="36">
         <v>0</v>
       </c>
       <c r="E164" s="8">
@@ -5472,7 +5532,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G164" s="56" t="s">
+      <c r="G164" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5483,10 +5543,10 @@
       <c r="B165" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C165" s="41">
-        <v>0</v>
-      </c>
-      <c r="D165" s="41">
+      <c r="C165" s="36">
+        <v>0</v>
+      </c>
+      <c r="D165" s="36">
         <v>0</v>
       </c>
       <c r="E165" s="8">
@@ -5497,7 +5557,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G165" s="56" t="s">
+      <c r="G165" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5508,10 +5568,10 @@
       <c r="B166" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="41">
-        <v>0</v>
-      </c>
-      <c r="D166" s="41">
+      <c r="C166" s="36">
+        <v>0</v>
+      </c>
+      <c r="D166" s="36">
         <v>0</v>
       </c>
       <c r="E166" s="8">
@@ -5522,7 +5582,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G166" s="56" t="s">
+      <c r="G166" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5533,10 +5593,10 @@
       <c r="B167" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C167" s="41">
-        <v>0</v>
-      </c>
-      <c r="D167" s="41">
+      <c r="C167" s="36">
+        <v>0</v>
+      </c>
+      <c r="D167" s="36">
         <v>0</v>
       </c>
       <c r="E167" s="8">
@@ -5547,7 +5607,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G167" s="56" t="s">
+      <c r="G167" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5558,10 +5618,10 @@
       <c r="B168" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="41">
-        <v>0</v>
-      </c>
-      <c r="D168" s="41">
+      <c r="C168" s="36">
+        <v>0</v>
+      </c>
+      <c r="D168" s="36">
         <v>0</v>
       </c>
       <c r="E168" s="8">
@@ -5572,7 +5632,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G168" s="56" t="s">
+      <c r="G168" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5583,10 +5643,10 @@
       <c r="B169" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C169" s="41">
-        <v>0</v>
-      </c>
-      <c r="D169" s="41">
+      <c r="C169" s="36">
+        <v>0</v>
+      </c>
+      <c r="D169" s="36">
         <v>0</v>
       </c>
       <c r="E169" s="8">
@@ -5597,7 +5657,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G169" s="56" t="s">
+      <c r="G169" s="51" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5608,11 +5668,11 @@
       <c r="B170" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C170" s="41">
+      <c r="C170" s="36">
         <f>SUM(C164:C168)</f>
         <v>0</v>
       </c>
-      <c r="D170" s="41">
+      <c r="D170" s="36">
         <f>SUM(D164:D168)</f>
         <v>0</v>
       </c>
@@ -5624,7 +5684,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G170" s="57" t="s">
+      <c r="G170" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5636,10 +5696,10 @@
         <v>105</v>
       </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="54"/>
+      <c r="D171" s="49"/>
       <c r="E171" s="8"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="57"/>
+      <c r="G171" s="52"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
@@ -5648,10 +5708,10 @@
       <c r="B172" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C172" s="41">
-        <v>0</v>
-      </c>
-      <c r="D172" s="41">
+      <c r="C172" s="36">
+        <v>0</v>
+      </c>
+      <c r="D172" s="36">
         <v>0</v>
       </c>
       <c r="E172" s="8">
@@ -5662,7 +5722,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G172" s="56" t="s">
+      <c r="G172" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5673,10 +5733,10 @@
       <c r="B173" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C173" s="41">
-        <v>0</v>
-      </c>
-      <c r="D173" s="41">
+      <c r="C173" s="36">
+        <v>0</v>
+      </c>
+      <c r="D173" s="36">
         <v>0</v>
       </c>
       <c r="E173" s="8">
@@ -5687,7 +5747,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G173" s="56" t="s">
+      <c r="G173" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5698,10 +5758,10 @@
       <c r="B174" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C174" s="41">
-        <v>0</v>
-      </c>
-      <c r="D174" s="41">
+      <c r="C174" s="36">
+        <v>0</v>
+      </c>
+      <c r="D174" s="36">
         <v>0</v>
       </c>
       <c r="E174" s="8">
@@ -5712,7 +5772,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G174" s="56" t="s">
+      <c r="G174" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5721,10 +5781,10 @@
       <c r="B175" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C175" s="41">
-        <v>0</v>
-      </c>
-      <c r="D175" s="41">
+      <c r="C175" s="36">
+        <v>0</v>
+      </c>
+      <c r="D175" s="36">
         <v>0</v>
       </c>
       <c r="E175" s="8">
@@ -5735,7 +5795,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G175" s="56" t="s">
+      <c r="G175" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5746,10 +5806,10 @@
       <c r="B176" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C176" s="41">
-        <v>0</v>
-      </c>
-      <c r="D176" s="41">
+      <c r="C176" s="36">
+        <v>0</v>
+      </c>
+      <c r="D176" s="36">
         <v>0</v>
       </c>
       <c r="E176" s="8">
@@ -5760,7 +5820,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G176" s="56" t="s">
+      <c r="G176" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5771,10 +5831,10 @@
       <c r="B177" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C177" s="41">
-        <v>0</v>
-      </c>
-      <c r="D177" s="41">
+      <c r="C177" s="36">
+        <v>0</v>
+      </c>
+      <c r="D177" s="36">
         <v>0</v>
       </c>
       <c r="E177" s="8">
@@ -5785,7 +5845,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G177" s="56" t="s">
+      <c r="G177" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5796,10 +5856,10 @@
       <c r="B178" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C178" s="41">
-        <v>0</v>
-      </c>
-      <c r="D178" s="41">
+      <c r="C178" s="36">
+        <v>0</v>
+      </c>
+      <c r="D178" s="36">
         <v>0</v>
       </c>
       <c r="E178" s="8">
@@ -5810,7 +5870,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G178" s="56" t="s">
+      <c r="G178" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5821,10 +5881,10 @@
       <c r="B179" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C179" s="41">
-        <v>0</v>
-      </c>
-      <c r="D179" s="41">
+      <c r="C179" s="36">
+        <v>0</v>
+      </c>
+      <c r="D179" s="36">
         <v>0</v>
       </c>
       <c r="E179" s="8">
@@ -5835,7 +5895,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G179" s="59" t="s">
+      <c r="G179" s="54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5844,10 +5904,10 @@
       <c r="B180" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C180" s="41">
-        <v>0</v>
-      </c>
-      <c r="D180" s="41">
+      <c r="C180" s="36">
+        <v>0</v>
+      </c>
+      <c r="D180" s="36">
         <v>0</v>
       </c>
       <c r="E180" s="8">
@@ -5858,7 +5918,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G180" s="56" t="s">
+      <c r="G180" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5869,10 +5929,10 @@
       <c r="B181" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C181" s="41">
-        <v>0</v>
-      </c>
-      <c r="D181" s="41">
+      <c r="C181" s="36">
+        <v>0</v>
+      </c>
+      <c r="D181" s="36">
         <v>0</v>
       </c>
       <c r="E181" s="8">
@@ -5883,7 +5943,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G181" s="56" t="s">
+      <c r="G181" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5894,11 +5954,11 @@
       <c r="B182" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C182" s="41">
+      <c r="C182" s="36">
         <f>SUM(C172:C181)</f>
         <v>0</v>
       </c>
-      <c r="D182" s="41">
+      <c r="D182" s="36">
         <f>SUM(D172:D181)</f>
         <v>0</v>
       </c>
@@ -5910,7 +5970,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G182" s="57" t="s">
+      <c r="G182" s="52" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5922,10 +5982,10 @@
         <v>267</v>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="54"/>
+      <c r="D183" s="49"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="57"/>
+      <c r="G183" s="52"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
@@ -5934,10 +5994,10 @@
       <c r="B184" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="41">
-        <v>0</v>
-      </c>
-      <c r="D184" s="41">
+      <c r="C184" s="36">
+        <v>0</v>
+      </c>
+      <c r="D184" s="36">
         <v>0</v>
       </c>
       <c r="E184" s="8">
@@ -5948,7 +6008,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G184" s="56" t="s">
+      <c r="G184" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5959,10 +6019,10 @@
       <c r="B185" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C185" s="41">
-        <v>0</v>
-      </c>
-      <c r="D185" s="41">
+      <c r="C185" s="36">
+        <v>0</v>
+      </c>
+      <c r="D185" s="36">
         <v>0</v>
       </c>
       <c r="E185" s="8">
@@ -5973,7 +6033,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G185" s="56" t="s">
+      <c r="G185" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5984,10 +6044,10 @@
       <c r="B186" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C186" s="41">
-        <v>0</v>
-      </c>
-      <c r="D186" s="41">
+      <c r="C186" s="36">
+        <v>0</v>
+      </c>
+      <c r="D186" s="36">
         <v>0</v>
       </c>
       <c r="E186" s="8">
@@ -5998,7 +6058,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G186" s="56" t="s">
+      <c r="G186" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6009,10 +6069,10 @@
       <c r="B187" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="41">
-        <v>0</v>
-      </c>
-      <c r="D187" s="41">
+      <c r="C187" s="36">
+        <v>0</v>
+      </c>
+      <c r="D187" s="36">
         <v>0</v>
       </c>
       <c r="E187" s="8">
@@ -6023,7 +6083,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G187" s="56" t="s">
+      <c r="G187" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6034,10 +6094,10 @@
       <c r="B188" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C188" s="41">
-        <v>0</v>
-      </c>
-      <c r="D188" s="41">
+      <c r="C188" s="36">
+        <v>0</v>
+      </c>
+      <c r="D188" s="36">
         <v>0</v>
       </c>
       <c r="E188" s="8">
@@ -6048,7 +6108,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G188" s="56" t="s">
+      <c r="G188" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6059,10 +6119,10 @@
       <c r="B189" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C189" s="41">
-        <v>0</v>
-      </c>
-      <c r="D189" s="41">
+      <c r="C189" s="36">
+        <v>0</v>
+      </c>
+      <c r="D189" s="36">
         <v>0</v>
       </c>
       <c r="E189" s="8">
@@ -6073,7 +6133,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G189" s="56" t="s">
+      <c r="G189" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6084,10 +6144,10 @@
       <c r="B190" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C190" s="41">
-        <v>0</v>
-      </c>
-      <c r="D190" s="41">
+      <c r="C190" s="36">
+        <v>0</v>
+      </c>
+      <c r="D190" s="36">
         <v>0</v>
       </c>
       <c r="E190" s="8">
@@ -6098,7 +6158,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G190" s="56" t="s">
+      <c r="G190" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6109,11 +6169,11 @@
       <c r="B191" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C191" s="41">
+      <c r="C191" s="36">
         <f>SUM(C184:C190)</f>
         <v>0</v>
       </c>
-      <c r="D191" s="41">
+      <c r="D191" s="36">
         <f>SUM(D184:D190)</f>
         <v>0</v>
       </c>
@@ -6125,7 +6185,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G191" s="57" t="s">
+      <c r="G191" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6137,20 +6197,20 @@
         <v>117</v>
       </c>
       <c r="C192" s="4"/>
-      <c r="D192" s="54"/>
+      <c r="D192" s="49"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="57"/>
+      <c r="G192" s="52"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C193" s="41">
-        <v>0</v>
-      </c>
-      <c r="D193" s="41">
+      <c r="C193" s="36">
+        <v>0</v>
+      </c>
+      <c r="D193" s="36">
         <v>0</v>
       </c>
       <c r="E193" s="8">
@@ -6161,7 +6221,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G193" s="56" t="s">
+      <c r="G193" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6170,10 +6230,10 @@
       <c r="B194" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C194" s="41">
-        <v>0</v>
-      </c>
-      <c r="D194" s="41">
+      <c r="C194" s="36">
+        <v>0</v>
+      </c>
+      <c r="D194" s="36">
         <v>0</v>
       </c>
       <c r="E194" s="8">
@@ -6184,7 +6244,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G194" s="56" t="s">
+      <c r="G194" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6193,10 +6253,10 @@
       <c r="B195" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C195" s="41">
-        <v>0</v>
-      </c>
-      <c r="D195" s="41">
+      <c r="C195" s="36">
+        <v>0</v>
+      </c>
+      <c r="D195" s="36">
         <v>0</v>
       </c>
       <c r="E195" s="8">
@@ -6207,7 +6267,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G195" s="56" t="s">
+      <c r="G195" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6216,10 +6276,10 @@
       <c r="B196" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C196" s="41">
-        <v>0</v>
-      </c>
-      <c r="D196" s="41">
+      <c r="C196" s="36">
+        <v>0</v>
+      </c>
+      <c r="D196" s="36">
         <v>0</v>
       </c>
       <c r="E196" s="8">
@@ -6230,7 +6290,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G196" s="56" t="s">
+      <c r="G196" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6239,10 +6299,10 @@
       <c r="B197" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C197" s="41">
-        <v>0</v>
-      </c>
-      <c r="D197" s="41">
+      <c r="C197" s="36">
+        <v>0</v>
+      </c>
+      <c r="D197" s="36">
         <v>0</v>
       </c>
       <c r="E197" s="8">
@@ -6253,7 +6313,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G197" s="56" t="s">
+      <c r="G197" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6262,10 +6322,10 @@
       <c r="B198" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C198" s="41">
-        <v>0</v>
-      </c>
-      <c r="D198" s="41">
+      <c r="C198" s="36">
+        <v>0</v>
+      </c>
+      <c r="D198" s="36">
         <v>0</v>
       </c>
       <c r="E198" s="8">
@@ -6276,7 +6336,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G198" s="56" t="s">
+      <c r="G198" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6285,10 +6345,10 @@
       <c r="B199" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C199" s="41">
-        <v>0</v>
-      </c>
-      <c r="D199" s="41">
+      <c r="C199" s="36">
+        <v>0</v>
+      </c>
+      <c r="D199" s="36">
         <v>0</v>
       </c>
       <c r="E199" s="8">
@@ -6299,7 +6359,7 @@
         <f t="shared" ref="F199:F260" si="14">SUM(D199-C199)/C199*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G199" s="56" t="s">
+      <c r="G199" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6310,10 +6370,10 @@
       <c r="B200" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C200" s="41">
-        <v>0</v>
-      </c>
-      <c r="D200" s="41">
+      <c r="C200" s="36">
+        <v>0</v>
+      </c>
+      <c r="D200" s="36">
         <v>0</v>
       </c>
       <c r="E200" s="8">
@@ -6324,7 +6384,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G200" s="56" t="s">
+      <c r="G200" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6335,10 +6395,10 @@
       <c r="B201" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C201" s="41">
-        <v>0</v>
-      </c>
-      <c r="D201" s="41">
+      <c r="C201" s="36">
+        <v>0</v>
+      </c>
+      <c r="D201" s="36">
         <v>0</v>
       </c>
       <c r="E201" s="8">
@@ -6349,7 +6409,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G201" s="56" t="s">
+      <c r="G201" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6360,10 +6420,10 @@
       <c r="B202" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C202" s="41">
-        <v>0</v>
-      </c>
-      <c r="D202" s="41">
+      <c r="C202" s="36">
+        <v>0</v>
+      </c>
+      <c r="D202" s="36">
         <v>0</v>
       </c>
       <c r="E202" s="8">
@@ -6374,7 +6434,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G202" s="56" t="s">
+      <c r="G202" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6385,10 +6445,10 @@
       <c r="B203" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C203" s="41">
-        <v>0</v>
-      </c>
-      <c r="D203" s="41">
+      <c r="C203" s="36">
+        <v>0</v>
+      </c>
+      <c r="D203" s="36">
         <v>0</v>
       </c>
       <c r="E203" s="8">
@@ -6399,7 +6459,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G203" s="56" t="s">
+      <c r="G203" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6410,11 +6470,11 @@
       <c r="B204" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C204" s="41">
+      <c r="C204" s="36">
         <f>SUM(C193:C203)</f>
         <v>0</v>
       </c>
-      <c r="D204" s="41">
+      <c r="D204" s="36">
         <f>SUM(D193:D203)</f>
         <v>0</v>
       </c>
@@ -6426,7 +6486,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G204" s="57" t="s">
+      <c r="G204" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6438,10 +6498,10 @@
         <v>118</v>
       </c>
       <c r="C205" s="4"/>
-      <c r="D205" s="54"/>
+      <c r="D205" s="49"/>
       <c r="E205" s="8"/>
       <c r="F205" s="9"/>
-      <c r="G205" s="60"/>
+      <c r="G205" s="55"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
@@ -6450,10 +6510,10 @@
       <c r="B206" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C206" s="41">
-        <v>0</v>
-      </c>
-      <c r="D206" s="41">
+      <c r="C206" s="36">
+        <v>0</v>
+      </c>
+      <c r="D206" s="36">
         <v>0</v>
       </c>
       <c r="E206" s="8">
@@ -6464,7 +6524,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G206" s="56" t="s">
+      <c r="G206" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6475,10 +6535,10 @@
       <c r="B207" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C207" s="41">
-        <v>0</v>
-      </c>
-      <c r="D207" s="41">
+      <c r="C207" s="36">
+        <v>0</v>
+      </c>
+      <c r="D207" s="36">
         <v>0</v>
       </c>
       <c r="E207" s="8">
@@ -6489,7 +6549,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G207" s="56" t="s">
+      <c r="G207" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6500,10 +6560,10 @@
       <c r="B208" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="41">
-        <v>0</v>
-      </c>
-      <c r="D208" s="41">
+      <c r="C208" s="36">
+        <v>0</v>
+      </c>
+      <c r="D208" s="36">
         <v>0</v>
       </c>
       <c r="E208" s="8">
@@ -6514,7 +6574,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G208" s="56" t="s">
+      <c r="G208" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6525,10 +6585,10 @@
       <c r="B209" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C209" s="41">
-        <v>0</v>
-      </c>
-      <c r="D209" s="41">
+      <c r="C209" s="36">
+        <v>0</v>
+      </c>
+      <c r="D209" s="36">
         <v>0</v>
       </c>
       <c r="E209" s="8">
@@ -6539,7 +6599,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G209" s="56" t="s">
+      <c r="G209" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6550,10 +6610,10 @@
       <c r="B210" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C210" s="41">
-        <v>0</v>
-      </c>
-      <c r="D210" s="41">
+      <c r="C210" s="36">
+        <v>0</v>
+      </c>
+      <c r="D210" s="36">
         <v>0</v>
       </c>
       <c r="E210" s="8">
@@ -6564,7 +6624,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G210" s="56" t="s">
+      <c r="G210" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6575,10 +6635,10 @@
       <c r="B211" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="41">
-        <v>0</v>
-      </c>
-      <c r="D211" s="41">
+      <c r="C211" s="36">
+        <v>0</v>
+      </c>
+      <c r="D211" s="36">
         <v>0</v>
       </c>
       <c r="E211" s="8">
@@ -6589,7 +6649,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G211" s="56" t="s">
+      <c r="G211" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6598,10 +6658,10 @@
       <c r="B212" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C212" s="41">
-        <v>0</v>
-      </c>
-      <c r="D212" s="41">
+      <c r="C212" s="36">
+        <v>0</v>
+      </c>
+      <c r="D212" s="36">
         <v>0</v>
       </c>
       <c r="E212" s="8">
@@ -6612,7 +6672,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G212" s="56" t="s">
+      <c r="G212" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6621,10 +6681,10 @@
       <c r="B213" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C213" s="41">
-        <v>0</v>
-      </c>
-      <c r="D213" s="41">
+      <c r="C213" s="36">
+        <v>0</v>
+      </c>
+      <c r="D213" s="36">
         <v>0</v>
       </c>
       <c r="E213" s="8">
@@ -6635,7 +6695,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G213" s="56" t="s">
+      <c r="G213" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6646,10 +6706,10 @@
       <c r="B214" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C214" s="41">
-        <v>0</v>
-      </c>
-      <c r="D214" s="41">
+      <c r="C214" s="36">
+        <v>0</v>
+      </c>
+      <c r="D214" s="36">
         <v>0</v>
       </c>
       <c r="E214" s="8">
@@ -6660,7 +6720,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G214" s="56" t="s">
+      <c r="G214" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6671,10 +6731,10 @@
       <c r="B215" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C215" s="41">
-        <v>0</v>
-      </c>
-      <c r="D215" s="41">
+      <c r="C215" s="36">
+        <v>0</v>
+      </c>
+      <c r="D215" s="36">
         <v>0</v>
       </c>
       <c r="E215" s="8">
@@ -6685,7 +6745,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G215" s="56" t="s">
+      <c r="G215" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6696,11 +6756,11 @@
       <c r="B216" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="41">
+      <c r="C216" s="36">
         <f>SUM(C206:C215)</f>
         <v>0</v>
       </c>
-      <c r="D216" s="41">
+      <c r="D216" s="36">
         <f>SUM(D206:D215)</f>
         <v>0</v>
       </c>
@@ -6712,7 +6772,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G216" s="57" t="s">
+      <c r="G216" s="52" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6724,10 +6784,10 @@
         <v>120</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="54"/>
+      <c r="D217" s="49"/>
       <c r="E217" s="8"/>
       <c r="F217" s="9"/>
-      <c r="G217" s="57"/>
+      <c r="G217" s="52"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
@@ -6737,10 +6797,10 @@
         <v>121</v>
       </c>
       <c r="C218" s="4"/>
-      <c r="D218" s="54"/>
+      <c r="D218" s="49"/>
       <c r="E218" s="8"/>
       <c r="F218" s="9"/>
-      <c r="G218" s="56"/>
+      <c r="G218" s="51"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
@@ -6749,10 +6809,10 @@
       <c r="B219" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="41">
-        <v>0</v>
-      </c>
-      <c r="D219" s="41">
+      <c r="C219" s="36">
+        <v>0</v>
+      </c>
+      <c r="D219" s="36">
         <v>0</v>
       </c>
       <c r="E219" s="8">
@@ -6763,7 +6823,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G219" s="56" t="s">
+      <c r="G219" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6774,10 +6834,10 @@
       <c r="B220" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C220" s="41">
-        <v>0</v>
-      </c>
-      <c r="D220" s="41">
+      <c r="C220" s="36">
+        <v>0</v>
+      </c>
+      <c r="D220" s="36">
         <v>0</v>
       </c>
       <c r="E220" s="8">
@@ -6788,7 +6848,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G220" s="56" t="s">
+      <c r="G220" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6799,10 +6859,10 @@
       <c r="B221" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C221" s="41">
-        <v>0</v>
-      </c>
-      <c r="D221" s="41">
+      <c r="C221" s="36">
+        <v>0</v>
+      </c>
+      <c r="D221" s="36">
         <v>0</v>
       </c>
       <c r="E221" s="8">
@@ -6813,7 +6873,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G221" s="56" t="s">
+      <c r="G221" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6824,10 +6884,10 @@
       <c r="B222" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C222" s="41">
-        <v>0</v>
-      </c>
-      <c r="D222" s="41">
+      <c r="C222" s="36">
+        <v>0</v>
+      </c>
+      <c r="D222" s="36">
         <v>0</v>
       </c>
       <c r="E222" s="8">
@@ -6838,7 +6898,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G222" s="56" t="s">
+      <c r="G222" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6847,10 +6907,10 @@
       <c r="B223" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C223" s="41">
-        <v>0</v>
-      </c>
-      <c r="D223" s="41">
+      <c r="C223" s="36">
+        <v>0</v>
+      </c>
+      <c r="D223" s="36">
         <v>0</v>
       </c>
       <c r="E223" s="8">
@@ -6861,7 +6921,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G223" s="56" t="s">
+      <c r="G223" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6872,10 +6932,10 @@
       <c r="B224" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C224" s="41">
-        <v>0</v>
-      </c>
-      <c r="D224" s="41">
+      <c r="C224" s="36">
+        <v>0</v>
+      </c>
+      <c r="D224" s="36">
         <v>0</v>
       </c>
       <c r="E224" s="8">
@@ -6886,7 +6946,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G224" s="56" t="s">
+      <c r="G224" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6897,11 +6957,11 @@
       <c r="B225" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C225" s="41">
+      <c r="C225" s="36">
         <f>SUM(C219:C224)</f>
         <v>0</v>
       </c>
-      <c r="D225" s="41">
+      <c r="D225" s="36">
         <f>SUM(D219:D224)</f>
         <v>0</v>
       </c>
@@ -6913,7 +6973,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G225" s="57" t="s">
+      <c r="G225" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6925,10 +6985,10 @@
         <v>127</v>
       </c>
       <c r="C226" s="4"/>
-      <c r="D226" s="54"/>
+      <c r="D226" s="49"/>
       <c r="E226" s="8"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="57"/>
+      <c r="G226" s="52"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
@@ -6937,10 +6997,10 @@
       <c r="B227" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C227" s="41">
-        <v>0</v>
-      </c>
-      <c r="D227" s="41">
+      <c r="C227" s="36">
+        <v>0</v>
+      </c>
+      <c r="D227" s="36">
         <v>0</v>
       </c>
       <c r="E227" s="8">
@@ -6951,7 +7011,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G227" s="56" t="s">
+      <c r="G227" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6962,10 +7022,10 @@
       <c r="B228" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C228" s="41">
-        <v>0</v>
-      </c>
-      <c r="D228" s="41">
+      <c r="C228" s="36">
+        <v>0</v>
+      </c>
+      <c r="D228" s="36">
         <v>0</v>
       </c>
       <c r="E228" s="8">
@@ -6976,7 +7036,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G228" s="56" t="s">
+      <c r="G228" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6987,10 +7047,10 @@
       <c r="B229" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C229" s="41">
-        <v>0</v>
-      </c>
-      <c r="D229" s="41">
+      <c r="C229" s="36">
+        <v>0</v>
+      </c>
+      <c r="D229" s="36">
         <v>0</v>
       </c>
       <c r="E229" s="8">
@@ -7001,7 +7061,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G229" s="56" t="s">
+      <c r="G229" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7012,10 +7072,10 @@
       <c r="B230" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C230" s="41">
-        <v>0</v>
-      </c>
-      <c r="D230" s="41">
+      <c r="C230" s="36">
+        <v>0</v>
+      </c>
+      <c r="D230" s="36">
         <v>0</v>
       </c>
       <c r="E230" s="8">
@@ -7026,7 +7086,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G230" s="56" t="s">
+      <c r="G230" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7037,11 +7097,11 @@
       <c r="B231" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C231" s="41">
+      <c r="C231" s="36">
         <f>SUM(C227:C230)</f>
         <v>0</v>
       </c>
-      <c r="D231" s="41">
+      <c r="D231" s="36">
         <f>SUM(D227:D230)</f>
         <v>0</v>
       </c>
@@ -7053,7 +7113,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G231" s="57" t="s">
+      <c r="G231" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7065,10 +7125,10 @@
         <v>128</v>
       </c>
       <c r="C232" s="4"/>
-      <c r="D232" s="54"/>
+      <c r="D232" s="49"/>
       <c r="E232" s="8"/>
       <c r="F232" s="9"/>
-      <c r="G232" s="57"/>
+      <c r="G232" s="52"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
@@ -7077,10 +7137,10 @@
       <c r="B233" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C233" s="41">
-        <v>0</v>
-      </c>
-      <c r="D233" s="41">
+      <c r="C233" s="36">
+        <v>0</v>
+      </c>
+      <c r="D233" s="36">
         <v>0</v>
       </c>
       <c r="E233" s="8">
@@ -7091,7 +7151,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G233" s="56" t="s">
+      <c r="G233" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7102,10 +7162,10 @@
       <c r="B234" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C234" s="41">
-        <v>0</v>
-      </c>
-      <c r="D234" s="41">
+      <c r="C234" s="36">
+        <v>0</v>
+      </c>
+      <c r="D234" s="36">
         <v>0</v>
       </c>
       <c r="E234" s="8">
@@ -7116,7 +7176,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G234" s="56" t="s">
+      <c r="G234" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7127,10 +7187,10 @@
       <c r="B235" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C235" s="41">
-        <v>0</v>
-      </c>
-      <c r="D235" s="41">
+      <c r="C235" s="36">
+        <v>0</v>
+      </c>
+      <c r="D235" s="36">
         <v>0</v>
       </c>
       <c r="E235" s="8">
@@ -7141,7 +7201,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G235" s="56" t="s">
+      <c r="G235" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7152,10 +7212,10 @@
       <c r="B236" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C236" s="41">
-        <v>0</v>
-      </c>
-      <c r="D236" s="41">
+      <c r="C236" s="36">
+        <v>0</v>
+      </c>
+      <c r="D236" s="36">
         <v>0</v>
       </c>
       <c r="E236" s="8">
@@ -7166,7 +7226,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G236" s="56" t="s">
+      <c r="G236" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7177,11 +7237,11 @@
       <c r="B237" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C237" s="41">
+      <c r="C237" s="36">
         <f>SUM(C233:C236)</f>
         <v>0</v>
       </c>
-      <c r="D237" s="41">
+      <c r="D237" s="36">
         <f>SUM(D233:D236)</f>
         <v>0</v>
       </c>
@@ -7193,7 +7253,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G237" s="57" t="s">
+      <c r="G237" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7205,10 +7265,10 @@
         <v>129</v>
       </c>
       <c r="C238" s="4"/>
-      <c r="D238" s="54"/>
+      <c r="D238" s="49"/>
       <c r="E238" s="8"/>
       <c r="F238" s="9"/>
-      <c r="G238" s="57"/>
+      <c r="G238" s="52"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
@@ -7217,15 +7277,15 @@
       <c r="B239" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C239" s="41">
-        <v>0</v>
-      </c>
-      <c r="D239" s="54" t="s">
+      <c r="C239" s="36">
+        <v>0</v>
+      </c>
+      <c r="D239" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="9"/>
-      <c r="G239" s="56"/>
+      <c r="G239" s="51"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
@@ -7234,10 +7294,10 @@
       <c r="B240" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C240" s="41">
-        <v>0</v>
-      </c>
-      <c r="D240" s="41">
+      <c r="C240" s="36">
+        <v>0</v>
+      </c>
+      <c r="D240" s="36">
         <v>0</v>
       </c>
       <c r="E240" s="8">
@@ -7248,7 +7308,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G240" s="56" t="s">
+      <c r="G240" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7259,10 +7319,10 @@
       <c r="B241" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C241" s="41">
-        <v>0</v>
-      </c>
-      <c r="D241" s="41">
+      <c r="C241" s="36">
+        <v>0</v>
+      </c>
+      <c r="D241" s="36">
         <v>0</v>
       </c>
       <c r="E241" s="8">
@@ -7273,7 +7333,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G241" s="56" t="s">
+      <c r="G241" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7284,10 +7344,10 @@
       <c r="B242" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="41">
-        <v>0</v>
-      </c>
-      <c r="D242" s="41">
+      <c r="C242" s="36">
+        <v>0</v>
+      </c>
+      <c r="D242" s="36">
         <v>0</v>
       </c>
       <c r="E242" s="8">
@@ -7298,7 +7358,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G242" s="56" t="s">
+      <c r="G242" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7307,10 +7367,10 @@
       <c r="B243" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C243" s="41">
-        <v>0</v>
-      </c>
-      <c r="D243" s="41">
+      <c r="C243" s="36">
+        <v>0</v>
+      </c>
+      <c r="D243" s="36">
         <v>0</v>
       </c>
       <c r="E243" s="8">
@@ -7321,7 +7381,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G243" s="56" t="s">
+      <c r="G243" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7330,10 +7390,10 @@
       <c r="B244" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C244" s="41">
-        <v>0</v>
-      </c>
-      <c r="D244" s="41">
+      <c r="C244" s="36">
+        <v>0</v>
+      </c>
+      <c r="D244" s="36">
         <v>0</v>
       </c>
       <c r="E244" s="8">
@@ -7344,7 +7404,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G244" s="56" t="s">
+      <c r="G244" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7353,10 +7413,10 @@
       <c r="B245" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C245" s="41">
-        <v>0</v>
-      </c>
-      <c r="D245" s="41">
+      <c r="C245" s="36">
+        <v>0</v>
+      </c>
+      <c r="D245" s="36">
         <v>0</v>
       </c>
       <c r="E245" s="8">
@@ -7367,7 +7427,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G245" s="56" t="s">
+      <c r="G245" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7376,10 +7436,10 @@
       <c r="B246" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C246" s="41">
-        <v>0</v>
-      </c>
-      <c r="D246" s="41">
+      <c r="C246" s="36">
+        <v>0</v>
+      </c>
+      <c r="D246" s="36">
         <v>0</v>
       </c>
       <c r="E246" s="8">
@@ -7390,7 +7450,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G246" s="56" t="s">
+      <c r="G246" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7399,10 +7459,10 @@
       <c r="B247" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C247" s="41">
-        <v>0</v>
-      </c>
-      <c r="D247" s="41">
+      <c r="C247" s="36">
+        <v>0</v>
+      </c>
+      <c r="D247" s="36">
         <v>0</v>
       </c>
       <c r="E247" s="8">
@@ -7413,7 +7473,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G247" s="56" t="s">
+      <c r="G247" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7422,10 +7482,10 @@
       <c r="B248" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C248" s="41">
-        <v>0</v>
-      </c>
-      <c r="D248" s="41">
+      <c r="C248" s="36">
+        <v>0</v>
+      </c>
+      <c r="D248" s="36">
         <v>0</v>
       </c>
       <c r="E248" s="8">
@@ -7436,7 +7496,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G248" s="56" t="s">
+      <c r="G248" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7445,10 +7505,10 @@
       <c r="B249" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C249" s="41">
-        <v>0</v>
-      </c>
-      <c r="D249" s="41">
+      <c r="C249" s="36">
+        <v>0</v>
+      </c>
+      <c r="D249" s="36">
         <v>0</v>
       </c>
       <c r="E249" s="8">
@@ -7459,7 +7519,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G249" s="56" t="s">
+      <c r="G249" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7468,10 +7528,10 @@
       <c r="B250" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C250" s="41">
-        <v>0</v>
-      </c>
-      <c r="D250" s="41">
+      <c r="C250" s="36">
+        <v>0</v>
+      </c>
+      <c r="D250" s="36">
         <v>0</v>
       </c>
       <c r="E250" s="8">
@@ -7482,7 +7542,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G250" s="56" t="s">
+      <c r="G250" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7493,10 +7553,10 @@
       <c r="B251" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C251" s="41">
-        <v>0</v>
-      </c>
-      <c r="D251" s="41">
+      <c r="C251" s="36">
+        <v>0</v>
+      </c>
+      <c r="D251" s="36">
         <v>0</v>
       </c>
       <c r="E251" s="8">
@@ -7507,7 +7567,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G251" s="56" t="s">
+      <c r="G251" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7518,10 +7578,10 @@
       <c r="B252" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C252" s="41">
-        <v>0</v>
-      </c>
-      <c r="D252" s="41">
+      <c r="C252" s="36">
+        <v>0</v>
+      </c>
+      <c r="D252" s="36">
         <v>0</v>
       </c>
       <c r="E252" s="8">
@@ -7532,7 +7592,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G252" s="56" t="s">
+      <c r="G252" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7543,10 +7603,10 @@
       <c r="B253" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C253" s="41">
-        <v>0</v>
-      </c>
-      <c r="D253" s="41">
+      <c r="C253" s="36">
+        <v>0</v>
+      </c>
+      <c r="D253" s="36">
         <v>0</v>
       </c>
       <c r="E253" s="8">
@@ -7557,7 +7617,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G253" s="56" t="s">
+      <c r="G253" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7568,10 +7628,10 @@
       <c r="B254" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C254" s="41">
-        <v>0</v>
-      </c>
-      <c r="D254" s="41">
+      <c r="C254" s="36">
+        <v>0</v>
+      </c>
+      <c r="D254" s="36">
         <v>0</v>
       </c>
       <c r="E254" s="8">
@@ -7582,7 +7642,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G254" s="56" t="s">
+      <c r="G254" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7591,25 +7651,25 @@
       <c r="B255" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C255" s="41">
-        <v>0</v>
-      </c>
-      <c r="D255" s="41">
+      <c r="C255" s="36">
+        <v>0</v>
+      </c>
+      <c r="D255" s="36">
         <v>0</v>
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="9"/>
-      <c r="G255" s="56"/>
+      <c r="G255" s="51"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="B256" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C256" s="41">
-        <v>0</v>
-      </c>
-      <c r="D256" s="41">
+      <c r="C256" s="36">
+        <v>0</v>
+      </c>
+      <c r="D256" s="36">
         <v>0</v>
       </c>
       <c r="E256" s="8">
@@ -7620,7 +7680,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G256" s="56" t="s">
+      <c r="G256" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7629,10 +7689,10 @@
       <c r="B257" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C257" s="41">
-        <v>0</v>
-      </c>
-      <c r="D257" s="41">
+      <c r="C257" s="36">
+        <v>0</v>
+      </c>
+      <c r="D257" s="36">
         <v>0</v>
       </c>
       <c r="E257" s="8">
@@ -7643,7 +7703,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G257" s="56" t="s">
+      <c r="G257" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7652,10 +7712,10 @@
       <c r="B258" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C258" s="41">
-        <v>0</v>
-      </c>
-      <c r="D258" s="41">
+      <c r="C258" s="36">
+        <v>0</v>
+      </c>
+      <c r="D258" s="36">
         <v>0</v>
       </c>
       <c r="E258" s="8">
@@ -7666,7 +7726,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G258" s="56" t="s">
+      <c r="G258" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7675,10 +7735,10 @@
       <c r="B259" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C259" s="41">
-        <v>0</v>
-      </c>
-      <c r="D259" s="41">
+      <c r="C259" s="36">
+        <v>0</v>
+      </c>
+      <c r="D259" s="36">
         <v>0</v>
       </c>
       <c r="E259" s="8">
@@ -7689,7 +7749,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G259" s="56" t="s">
+      <c r="G259" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7698,11 +7758,11 @@
       <c r="B260" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C260" s="41">
+      <c r="C260" s="36">
         <f>SUM(C239:C259)</f>
         <v>0</v>
       </c>
-      <c r="D260" s="41">
+      <c r="D260" s="36">
         <f>SUM(D239:D259)</f>
         <v>0</v>
       </c>
@@ -7714,7 +7774,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G260" s="57" t="s">
+      <c r="G260" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7726,10 +7786,10 @@
         <v>150</v>
       </c>
       <c r="C261" s="4"/>
-      <c r="D261" s="54"/>
+      <c r="D261" s="49"/>
       <c r="E261" s="8"/>
       <c r="F261" s="9"/>
-      <c r="G261" s="57"/>
+      <c r="G261" s="52"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
@@ -7738,10 +7798,10 @@
       <c r="B262" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C262" s="41">
-        <v>0</v>
-      </c>
-      <c r="D262" s="41">
+      <c r="C262" s="36">
+        <v>0</v>
+      </c>
+      <c r="D262" s="36">
         <v>0</v>
       </c>
       <c r="E262" s="8">
@@ -7752,7 +7812,7 @@
         <f t="shared" ref="F262:F325" si="21">SUM(D262-C262)/C262*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G262" s="56" t="s">
+      <c r="G262" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7763,10 +7823,10 @@
       <c r="B263" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C263" s="41">
-        <v>0</v>
-      </c>
-      <c r="D263" s="41">
+      <c r="C263" s="36">
+        <v>0</v>
+      </c>
+      <c r="D263" s="36">
         <v>0</v>
       </c>
       <c r="E263" s="8">
@@ -7777,7 +7837,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G263" s="56" t="s">
+      <c r="G263" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7788,10 +7848,10 @@
       <c r="B264" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C264" s="41">
-        <v>0</v>
-      </c>
-      <c r="D264" s="41">
+      <c r="C264" s="36">
+        <v>0</v>
+      </c>
+      <c r="D264" s="36">
         <v>0</v>
       </c>
       <c r="E264" s="8">
@@ -7802,7 +7862,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G264" s="56" t="s">
+      <c r="G264" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7813,10 +7873,10 @@
       <c r="B265" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C265" s="41">
-        <v>0</v>
-      </c>
-      <c r="D265" s="41">
+      <c r="C265" s="36">
+        <v>0</v>
+      </c>
+      <c r="D265" s="36">
         <v>0</v>
       </c>
       <c r="E265" s="8">
@@ -7827,7 +7887,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G265" s="56" t="s">
+      <c r="G265" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7838,10 +7898,10 @@
       <c r="B266" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C266" s="41">
-        <v>0</v>
-      </c>
-      <c r="D266" s="41">
+      <c r="C266" s="36">
+        <v>0</v>
+      </c>
+      <c r="D266" s="36">
         <v>0</v>
       </c>
       <c r="E266" s="8">
@@ -7852,7 +7912,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G266" s="56" t="s">
+      <c r="G266" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7863,10 +7923,10 @@
       <c r="B267" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C267" s="41">
-        <v>0</v>
-      </c>
-      <c r="D267" s="41">
+      <c r="C267" s="36">
+        <v>0</v>
+      </c>
+      <c r="D267" s="36">
         <v>0</v>
       </c>
       <c r="E267" s="8">
@@ -7877,7 +7937,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G267" s="56" t="s">
+      <c r="G267" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7888,10 +7948,10 @@
       <c r="B268" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C268" s="41">
-        <v>0</v>
-      </c>
-      <c r="D268" s="41">
+      <c r="C268" s="36">
+        <v>0</v>
+      </c>
+      <c r="D268" s="36">
         <v>0</v>
       </c>
       <c r="E268" s="8">
@@ -7902,7 +7962,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G268" s="56" t="s">
+      <c r="G268" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7911,10 +7971,10 @@
       <c r="B269" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C269" s="41">
-        <v>0</v>
-      </c>
-      <c r="D269" s="41">
+      <c r="C269" s="36">
+        <v>0</v>
+      </c>
+      <c r="D269" s="36">
         <v>0</v>
       </c>
       <c r="E269" s="8">
@@ -7925,7 +7985,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G269" s="56" t="s">
+      <c r="G269" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7936,11 +7996,11 @@
       <c r="B270" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C270" s="41">
+      <c r="C270" s="36">
         <f>SUM(C262:C269)</f>
         <v>0</v>
       </c>
-      <c r="D270" s="41">
+      <c r="D270" s="36">
         <f>SUM(D262:D269)</f>
         <v>0</v>
       </c>
@@ -7952,7 +8012,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G270" s="57" t="s">
+      <c r="G270" s="52" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7964,10 +8024,10 @@
         <v>159</v>
       </c>
       <c r="C271" s="4"/>
-      <c r="D271" s="54"/>
+      <c r="D271" s="49"/>
       <c r="E271" s="8"/>
       <c r="F271" s="9"/>
-      <c r="G271" s="57"/>
+      <c r="G271" s="52"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
@@ -7976,10 +8036,10 @@
       <c r="B272" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C272" s="41">
-        <v>0</v>
-      </c>
-      <c r="D272" s="41">
+      <c r="C272" s="36">
+        <v>0</v>
+      </c>
+      <c r="D272" s="36">
         <v>0</v>
       </c>
       <c r="E272" s="8">
@@ -7990,7 +8050,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G272" s="56" t="s">
+      <c r="G272" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8001,10 +8061,10 @@
       <c r="B273" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C273" s="41">
-        <v>0</v>
-      </c>
-      <c r="D273" s="41">
+      <c r="C273" s="36">
+        <v>0</v>
+      </c>
+      <c r="D273" s="36">
         <v>0</v>
       </c>
       <c r="E273" s="8">
@@ -8015,7 +8075,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G273" s="56" t="s">
+      <c r="G273" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8026,10 +8086,10 @@
       <c r="B274" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C274" s="41">
-        <v>0</v>
-      </c>
-      <c r="D274" s="41">
+      <c r="C274" s="36">
+        <v>0</v>
+      </c>
+      <c r="D274" s="36">
         <v>0</v>
       </c>
       <c r="E274" s="8">
@@ -8040,7 +8100,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G274" s="56" t="s">
+      <c r="G274" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8051,10 +8111,10 @@
       <c r="B275" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C275" s="41">
-        <v>0</v>
-      </c>
-      <c r="D275" s="41">
+      <c r="C275" s="36">
+        <v>0</v>
+      </c>
+      <c r="D275" s="36">
         <v>0</v>
       </c>
       <c r="E275" s="8">
@@ -8065,7 +8125,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G275" s="56" t="s">
+      <c r="G275" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8076,10 +8136,10 @@
       <c r="B276" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C276" s="41">
-        <v>0</v>
-      </c>
-      <c r="D276" s="41">
+      <c r="C276" s="36">
+        <v>0</v>
+      </c>
+      <c r="D276" s="36">
         <v>0</v>
       </c>
       <c r="E276" s="8">
@@ -8090,7 +8150,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G276" s="56" t="s">
+      <c r="G276" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8102,10 +8162,10 @@
         <v>161</v>
       </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="54"/>
+      <c r="D277" s="49"/>
       <c r="E277" s="8"/>
       <c r="F277" s="9"/>
-      <c r="G277" s="57"/>
+      <c r="G277" s="52"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
@@ -8114,10 +8174,10 @@
       <c r="B278" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C278" s="41">
-        <v>0</v>
-      </c>
-      <c r="D278" s="41">
+      <c r="C278" s="36">
+        <v>0</v>
+      </c>
+      <c r="D278" s="36">
         <v>0</v>
       </c>
       <c r="E278" s="8">
@@ -8128,7 +8188,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G278" s="56" t="s">
+      <c r="G278" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8139,10 +8199,10 @@
       <c r="B279" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C279" s="41">
-        <v>0</v>
-      </c>
-      <c r="D279" s="41">
+      <c r="C279" s="36">
+        <v>0</v>
+      </c>
+      <c r="D279" s="36">
         <v>0</v>
       </c>
       <c r="E279" s="8">
@@ -8153,7 +8213,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G279" s="56" t="s">
+      <c r="G279" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8162,10 +8222,10 @@
       <c r="B280" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C280" s="41">
-        <v>0</v>
-      </c>
-      <c r="D280" s="41">
+      <c r="C280" s="36">
+        <v>0</v>
+      </c>
+      <c r="D280" s="36">
         <v>0</v>
       </c>
       <c r="E280" s="8">
@@ -8176,7 +8236,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G280" s="56" t="s">
+      <c r="G280" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8187,10 +8247,10 @@
       <c r="B281" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C281" s="41">
-        <v>0</v>
-      </c>
-      <c r="D281" s="41">
+      <c r="C281" s="36">
+        <v>0</v>
+      </c>
+      <c r="D281" s="36">
         <v>0</v>
       </c>
       <c r="E281" s="8">
@@ -8201,7 +8261,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G281" s="56" t="s">
+      <c r="G281" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8212,10 +8272,10 @@
       <c r="B282" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C282" s="41">
-        <v>0</v>
-      </c>
-      <c r="D282" s="41">
+      <c r="C282" s="36">
+        <v>0</v>
+      </c>
+      <c r="D282" s="36">
         <v>0</v>
       </c>
       <c r="E282" s="8">
@@ -8226,7 +8286,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G282" s="56" t="s">
+      <c r="G282" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8238,20 +8298,20 @@
         <v>219</v>
       </c>
       <c r="C283" s="4"/>
-      <c r="D283" s="54"/>
+      <c r="D283" s="49"/>
       <c r="E283" s="8"/>
       <c r="F283" s="9"/>
-      <c r="G283" s="57"/>
+      <c r="G283" s="52"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C284" s="41">
-        <v>0</v>
-      </c>
-      <c r="D284" s="41">
+      <c r="C284" s="36">
+        <v>0</v>
+      </c>
+      <c r="D284" s="36">
         <v>0</v>
       </c>
       <c r="E284" s="8">
@@ -8262,7 +8322,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G284" s="56" t="s">
+      <c r="G284" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8271,10 +8331,10 @@
       <c r="B285" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C285" s="41">
-        <v>0</v>
-      </c>
-      <c r="D285" s="41">
+      <c r="C285" s="36">
+        <v>0</v>
+      </c>
+      <c r="D285" s="36">
         <v>0</v>
       </c>
       <c r="E285" s="8">
@@ -8285,7 +8345,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G285" s="56" t="s">
+      <c r="G285" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8294,10 +8354,10 @@
       <c r="B286" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C286" s="41">
-        <v>0</v>
-      </c>
-      <c r="D286" s="41">
+      <c r="C286" s="36">
+        <v>0</v>
+      </c>
+      <c r="D286" s="36">
         <v>0</v>
       </c>
       <c r="E286" s="8">
@@ -8308,7 +8368,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G286" s="56" t="s">
+      <c r="G286" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8317,10 +8377,10 @@
       <c r="B287" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C287" s="41">
-        <v>0</v>
-      </c>
-      <c r="D287" s="41">
+      <c r="C287" s="36">
+        <v>0</v>
+      </c>
+      <c r="D287" s="36">
         <v>0</v>
       </c>
       <c r="E287" s="8">
@@ -8331,7 +8391,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G287" s="56" t="s">
+      <c r="G287" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8340,10 +8400,10 @@
       <c r="B288" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C288" s="41">
-        <v>0</v>
-      </c>
-      <c r="D288" s="41">
+      <c r="C288" s="36">
+        <v>0</v>
+      </c>
+      <c r="D288" s="36">
         <v>0</v>
       </c>
       <c r="E288" s="8">
@@ -8354,7 +8414,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G288" s="56" t="s">
+      <c r="G288" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8366,10 +8426,10 @@
         <v>220</v>
       </c>
       <c r="C289" s="4"/>
-      <c r="D289" s="54"/>
+      <c r="D289" s="49"/>
       <c r="E289" s="8"/>
       <c r="F289" s="9"/>
-      <c r="G289" s="57"/>
+      <c r="G289" s="52"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
@@ -8378,10 +8438,10 @@
       <c r="B290" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C290" s="41">
-        <v>0</v>
-      </c>
-      <c r="D290" s="41">
+      <c r="C290" s="36">
+        <v>0</v>
+      </c>
+      <c r="D290" s="36">
         <v>0</v>
       </c>
       <c r="E290" s="8">
@@ -8392,7 +8452,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G290" s="56" t="s">
+      <c r="G290" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8403,10 +8463,10 @@
       <c r="B291" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C291" s="41">
-        <v>0</v>
-      </c>
-      <c r="D291" s="41">
+      <c r="C291" s="36">
+        <v>0</v>
+      </c>
+      <c r="D291" s="36">
         <v>0</v>
       </c>
       <c r="E291" s="8">
@@ -8417,7 +8477,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G291" s="56" t="s">
+      <c r="G291" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8428,10 +8488,10 @@
       <c r="B292" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C292" s="41">
-        <v>0</v>
-      </c>
-      <c r="D292" s="41">
+      <c r="C292" s="36">
+        <v>0</v>
+      </c>
+      <c r="D292" s="36">
         <v>0</v>
       </c>
       <c r="E292" s="8">
@@ -8442,7 +8502,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G292" s="56" t="s">
+      <c r="G292" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8453,10 +8513,10 @@
       <c r="B293" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C293" s="41">
-        <v>0</v>
-      </c>
-      <c r="D293" s="41">
+      <c r="C293" s="36">
+        <v>0</v>
+      </c>
+      <c r="D293" s="36">
         <v>0</v>
       </c>
       <c r="E293" s="8">
@@ -8467,7 +8527,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G293" s="56" t="s">
+      <c r="G293" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8478,10 +8538,10 @@
       <c r="B294" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C294" s="41">
-        <v>0</v>
-      </c>
-      <c r="D294" s="41">
+      <c r="C294" s="36">
+        <v>0</v>
+      </c>
+      <c r="D294" s="36">
         <v>0</v>
       </c>
       <c r="E294" s="8">
@@ -8492,7 +8552,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G294" s="56" t="s">
+      <c r="G294" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8503,21 +8563,21 @@
       <c r="B295" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C295" s="43"/>
-      <c r="D295" s="54"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="49"/>
       <c r="E295" s="8"/>
       <c r="F295" s="9"/>
-      <c r="G295" s="43"/>
+      <c r="G295" s="38"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C296" s="41">
-        <v>0</v>
-      </c>
-      <c r="D296" s="41">
+      <c r="C296" s="36">
+        <v>0</v>
+      </c>
+      <c r="D296" s="36">
         <v>0</v>
       </c>
       <c r="E296" s="8">
@@ -8528,7 +8588,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G296" s="56" t="s">
+      <c r="G296" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8537,10 +8597,10 @@
       <c r="B297" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C297" s="41">
-        <v>0</v>
-      </c>
-      <c r="D297" s="41">
+      <c r="C297" s="36">
+        <v>0</v>
+      </c>
+      <c r="D297" s="36">
         <v>0</v>
       </c>
       <c r="E297" s="8">
@@ -8551,7 +8611,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G297" s="56" t="s">
+      <c r="G297" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8560,10 +8620,10 @@
       <c r="B298" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C298" s="41">
-        <v>0</v>
-      </c>
-      <c r="D298" s="41">
+      <c r="C298" s="36">
+        <v>0</v>
+      </c>
+      <c r="D298" s="36">
         <v>0</v>
       </c>
       <c r="E298" s="8">
@@ -8574,7 +8634,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G298" s="56" t="s">
+      <c r="G298" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8583,10 +8643,10 @@
       <c r="B299" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C299" s="41">
-        <v>0</v>
-      </c>
-      <c r="D299" s="41">
+      <c r="C299" s="36">
+        <v>0</v>
+      </c>
+      <c r="D299" s="36">
         <v>0</v>
       </c>
       <c r="E299" s="8">
@@ -8597,7 +8657,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G299" s="56" t="s">
+      <c r="G299" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8606,10 +8666,10 @@
       <c r="B300" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C300" s="41">
-        <v>0</v>
-      </c>
-      <c r="D300" s="41">
+      <c r="C300" s="36">
+        <v>0</v>
+      </c>
+      <c r="D300" s="36">
         <v>0</v>
       </c>
       <c r="E300" s="8">
@@ -8620,7 +8680,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G300" s="56" t="s">
+      <c r="G300" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8631,21 +8691,21 @@
       <c r="B301" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C301" s="43"/>
-      <c r="D301" s="54"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="49"/>
       <c r="E301" s="8"/>
       <c r="F301" s="9"/>
-      <c r="G301" s="43"/>
+      <c r="G301" s="38"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="B302" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C302" s="41">
-        <v>0</v>
-      </c>
-      <c r="D302" s="41">
+      <c r="C302" s="36">
+        <v>0</v>
+      </c>
+      <c r="D302" s="36">
         <v>0</v>
       </c>
       <c r="E302" s="8">
@@ -8656,7 +8716,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G302" s="56" t="s">
+      <c r="G302" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8665,10 +8725,10 @@
       <c r="B303" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C303" s="41">
-        <v>0</v>
-      </c>
-      <c r="D303" s="41">
+      <c r="C303" s="36">
+        <v>0</v>
+      </c>
+      <c r="D303" s="36">
         <v>0</v>
       </c>
       <c r="E303" s="8">
@@ -8679,7 +8739,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G303" s="56" t="s">
+      <c r="G303" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8688,10 +8748,10 @@
       <c r="B304" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C304" s="41">
-        <v>0</v>
-      </c>
-      <c r="D304" s="41">
+      <c r="C304" s="36">
+        <v>0</v>
+      </c>
+      <c r="D304" s="36">
         <v>0</v>
       </c>
       <c r="E304" s="8">
@@ -8702,7 +8762,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G304" s="56" t="s">
+      <c r="G304" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8711,10 +8771,10 @@
       <c r="B305" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C305" s="41">
-        <v>0</v>
-      </c>
-      <c r="D305" s="41">
+      <c r="C305" s="36">
+        <v>0</v>
+      </c>
+      <c r="D305" s="36">
         <v>0</v>
       </c>
       <c r="E305" s="8">
@@ -8725,7 +8785,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G305" s="56" t="s">
+      <c r="G305" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8734,10 +8794,10 @@
       <c r="B306" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C306" s="41">
-        <v>0</v>
-      </c>
-      <c r="D306" s="41">
+      <c r="C306" s="36">
+        <v>0</v>
+      </c>
+      <c r="D306" s="36">
         <v>0</v>
       </c>
       <c r="E306" s="8">
@@ -8748,7 +8808,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G306" s="56" t="s">
+      <c r="G306" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8759,21 +8819,21 @@
       <c r="B307" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C307" s="43"/>
-      <c r="D307" s="54"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="49"/>
       <c r="E307" s="8"/>
       <c r="F307" s="9"/>
-      <c r="G307" s="43"/>
+      <c r="G307" s="38"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C308" s="41">
-        <v>0</v>
-      </c>
-      <c r="D308" s="41">
+      <c r="C308" s="36">
+        <v>0</v>
+      </c>
+      <c r="D308" s="36">
         <v>0</v>
       </c>
       <c r="E308" s="8">
@@ -8784,7 +8844,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G308" s="56" t="s">
+      <c r="G308" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8793,10 +8853,10 @@
       <c r="B309" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C309" s="41">
-        <v>0</v>
-      </c>
-      <c r="D309" s="41">
+      <c r="C309" s="36">
+        <v>0</v>
+      </c>
+      <c r="D309" s="36">
         <v>0</v>
       </c>
       <c r="E309" s="8">
@@ -8807,7 +8867,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G309" s="56" t="s">
+      <c r="G309" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8816,10 +8876,10 @@
       <c r="B310" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C310" s="41">
-        <v>0</v>
-      </c>
-      <c r="D310" s="41">
+      <c r="C310" s="36">
+        <v>0</v>
+      </c>
+      <c r="D310" s="36">
         <v>0</v>
       </c>
       <c r="E310" s="8">
@@ -8830,7 +8890,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G310" s="56" t="s">
+      <c r="G310" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8839,10 +8899,10 @@
       <c r="B311" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C311" s="41">
-        <v>0</v>
-      </c>
-      <c r="D311" s="41">
+      <c r="C311" s="36">
+        <v>0</v>
+      </c>
+      <c r="D311" s="36">
         <v>0</v>
       </c>
       <c r="E311" s="8">
@@ -8853,7 +8913,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G311" s="56" t="s">
+      <c r="G311" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8862,10 +8922,10 @@
       <c r="B312" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C312" s="41">
-        <v>0</v>
-      </c>
-      <c r="D312" s="41">
+      <c r="C312" s="36">
+        <v>0</v>
+      </c>
+      <c r="D312" s="36">
         <v>0</v>
       </c>
       <c r="E312" s="8">
@@ -8876,7 +8936,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G312" s="56" t="s">
+      <c r="G312" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8887,25 +8947,25 @@
       <c r="B313" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C313" s="41">
-        <v>0</v>
-      </c>
-      <c r="D313" s="41">
+      <c r="C313" s="36">
+        <v>0</v>
+      </c>
+      <c r="D313" s="36">
         <v>0</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="9"/>
-      <c r="G313" s="57"/>
+      <c r="G313" s="52"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C314" s="41">
-        <v>0</v>
-      </c>
-      <c r="D314" s="41">
+      <c r="C314" s="36">
+        <v>0</v>
+      </c>
+      <c r="D314" s="36">
         <v>0</v>
       </c>
       <c r="E314" s="8">
@@ -8916,7 +8976,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G314" s="56" t="s">
+      <c r="G314" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8927,10 +8987,10 @@
       <c r="B315" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C315" s="41">
-        <v>0</v>
-      </c>
-      <c r="D315" s="41">
+      <c r="C315" s="36">
+        <v>0</v>
+      </c>
+      <c r="D315" s="36">
         <v>0</v>
       </c>
       <c r="E315" s="8">
@@ -8941,7 +9001,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G315" s="56" t="s">
+      <c r="G315" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8952,10 +9012,10 @@
       <c r="B316" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C316" s="41">
-        <v>0</v>
-      </c>
-      <c r="D316" s="41">
+      <c r="C316" s="36">
+        <v>0</v>
+      </c>
+      <c r="D316" s="36">
         <v>0</v>
       </c>
       <c r="E316" s="8">
@@ -8966,7 +9026,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G316" s="56" t="s">
+      <c r="G316" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8977,10 +9037,10 @@
       <c r="B317" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C317" s="41">
-        <v>0</v>
-      </c>
-      <c r="D317" s="41">
+      <c r="C317" s="36">
+        <v>0</v>
+      </c>
+      <c r="D317" s="36">
         <v>0</v>
       </c>
       <c r="E317" s="8">
@@ -8991,7 +9051,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G317" s="56" t="s">
+      <c r="G317" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9002,10 +9062,10 @@
       <c r="B318" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C318" s="41">
-        <v>0</v>
-      </c>
-      <c r="D318" s="41">
+      <c r="C318" s="36">
+        <v>0</v>
+      </c>
+      <c r="D318" s="36">
         <v>0</v>
       </c>
       <c r="E318" s="8">
@@ -9016,7 +9076,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G318" s="56" t="s">
+      <c r="G318" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9027,10 +9087,10 @@
       <c r="B319" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C319" s="41">
-        <v>0</v>
-      </c>
-      <c r="D319" s="41">
+      <c r="C319" s="36">
+        <v>0</v>
+      </c>
+      <c r="D319" s="36">
         <v>0</v>
       </c>
       <c r="E319" s="8">
@@ -9041,7 +9101,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G319" s="56" t="s">
+      <c r="G319" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9050,10 +9110,10 @@
       <c r="B320" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C320" s="41">
-        <v>0</v>
-      </c>
-      <c r="D320" s="41">
+      <c r="C320" s="36">
+        <v>0</v>
+      </c>
+      <c r="D320" s="36">
         <v>0</v>
       </c>
       <c r="E320" s="8">
@@ -9064,7 +9124,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G320" s="56" t="s">
+      <c r="G320" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9075,25 +9135,25 @@
       <c r="B321" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C321" s="41">
-        <v>0</v>
-      </c>
-      <c r="D321" s="41">
+      <c r="C321" s="36">
+        <v>0</v>
+      </c>
+      <c r="D321" s="36">
         <v>0</v>
       </c>
       <c r="E321" s="8"/>
       <c r="F321" s="9"/>
-      <c r="G321" s="56"/>
+      <c r="G321" s="51"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C322" s="41">
-        <v>0</v>
-      </c>
-      <c r="D322" s="41">
+      <c r="C322" s="36">
+        <v>0</v>
+      </c>
+      <c r="D322" s="36">
         <v>0</v>
       </c>
       <c r="E322" s="8">
@@ -9104,7 +9164,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G322" s="56" t="s">
+      <c r="G322" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9113,10 +9173,10 @@
       <c r="B323" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C323" s="41">
-        <v>0</v>
-      </c>
-      <c r="D323" s="41">
+      <c r="C323" s="36">
+        <v>0</v>
+      </c>
+      <c r="D323" s="36">
         <v>0</v>
       </c>
       <c r="E323" s="8">
@@ -9127,7 +9187,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G323" s="56" t="s">
+      <c r="G323" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9136,10 +9196,10 @@
       <c r="B324" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C324" s="41">
-        <v>0</v>
-      </c>
-      <c r="D324" s="41">
+      <c r="C324" s="36">
+        <v>0</v>
+      </c>
+      <c r="D324" s="36">
         <v>0</v>
       </c>
       <c r="E324" s="8">
@@ -9150,7 +9210,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G324" s="56" t="s">
+      <c r="G324" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9159,11 +9219,11 @@
       <c r="B325" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C325" s="41">
+      <c r="C325" s="36">
         <f>SUM(C321:C324)</f>
         <v>0</v>
       </c>
-      <c r="D325" s="41">
+      <c r="D325" s="36">
         <f>SUM(D321:D324)</f>
         <v>0</v>
       </c>
@@ -9175,7 +9235,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G325" s="56" t="s">
+      <c r="G325" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9186,11 +9246,11 @@
       <c r="B326" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C326" s="44"/>
-      <c r="D326" s="54"/>
+      <c r="C326" s="39"/>
+      <c r="D326" s="49"/>
       <c r="E326" s="8"/>
       <c r="F326" s="9"/>
-      <c r="G326" s="56"/>
+      <c r="G326" s="51"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
@@ -9199,32 +9259,32 @@
       <c r="B327" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C327" s="45"/>
-      <c r="D327" s="54"/>
+      <c r="C327" s="40"/>
+      <c r="D327" s="49"/>
       <c r="E327" s="8"/>
       <c r="F327" s="9"/>
-      <c r="G327" s="56"/>
+      <c r="G327" s="51"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="B328" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C328" s="46"/>
-      <c r="D328" s="54"/>
+      <c r="C328" s="41"/>
+      <c r="D328" s="49"/>
       <c r="E328" s="8"/>
       <c r="F328" s="9"/>
-      <c r="G328" s="56"/>
+      <c r="G328" s="51"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
       <c r="B329" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C329" s="41">
-        <v>0</v>
-      </c>
-      <c r="D329" s="41">
+      <c r="C329" s="36">
+        <v>0</v>
+      </c>
+      <c r="D329" s="36">
         <v>0</v>
       </c>
       <c r="E329" s="8">
@@ -9235,7 +9295,7 @@
         <f t="shared" ref="F329:F390" si="32">SUM(D329-C329)/C329*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G329" s="61" t="s">
+      <c r="G329" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9244,10 +9304,10 @@
       <c r="B330" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C330" s="41">
-        <v>0</v>
-      </c>
-      <c r="D330" s="41">
+      <c r="C330" s="36">
+        <v>0</v>
+      </c>
+      <c r="D330" s="36">
         <v>0</v>
       </c>
       <c r="E330" s="8">
@@ -9258,7 +9318,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G330" s="61" t="s">
+      <c r="G330" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9267,10 +9327,10 @@
       <c r="B331" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C331" s="41">
-        <v>0</v>
-      </c>
-      <c r="D331" s="41">
+      <c r="C331" s="36">
+        <v>0</v>
+      </c>
+      <c r="D331" s="36">
         <v>0</v>
       </c>
       <c r="E331" s="8">
@@ -9281,7 +9341,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G331" s="61" t="s">
+      <c r="G331" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9290,10 +9350,10 @@
       <c r="B332" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C332" s="41">
-        <v>0</v>
-      </c>
-      <c r="D332" s="41">
+      <c r="C332" s="36">
+        <v>0</v>
+      </c>
+      <c r="D332" s="36">
         <v>0</v>
       </c>
       <c r="E332" s="8">
@@ -9304,7 +9364,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G332" s="61" t="s">
+      <c r="G332" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9313,10 +9373,10 @@
       <c r="B333" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C333" s="41">
-        <v>0</v>
-      </c>
-      <c r="D333" s="41">
+      <c r="C333" s="36">
+        <v>0</v>
+      </c>
+      <c r="D333" s="36">
         <v>0</v>
       </c>
       <c r="E333" s="8">
@@ -9327,7 +9387,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G333" s="61" t="s">
+      <c r="G333" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9336,10 +9396,10 @@
       <c r="B334" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="C334" s="41">
-        <v>0</v>
-      </c>
-      <c r="D334" s="41">
+      <c r="C334" s="36">
+        <v>0</v>
+      </c>
+      <c r="D334" s="36">
         <v>0</v>
       </c>
       <c r="E334" s="8">
@@ -9350,7 +9410,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G334" s="61" t="s">
+      <c r="G334" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9359,11 +9419,11 @@
       <c r="B335" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C335" s="41">
+      <c r="C335" s="36">
         <f>SUM(C329:C334)</f>
         <v>0</v>
       </c>
-      <c r="D335" s="41">
+      <c r="D335" s="36">
         <f>SUM(D329:D334)</f>
         <v>0</v>
       </c>
@@ -9375,7 +9435,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G335" s="62" t="s">
+      <c r="G335" s="57" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9384,21 +9444,21 @@
       <c r="B336" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C336" s="46"/>
-      <c r="D336" s="54"/>
+      <c r="C336" s="41"/>
+      <c r="D336" s="49"/>
       <c r="E336" s="8"/>
       <c r="F336" s="9"/>
-      <c r="G336" s="56"/>
+      <c r="G336" s="51"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
       <c r="B337" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C337" s="41">
-        <v>0</v>
-      </c>
-      <c r="D337" s="41">
+      <c r="C337" s="36">
+        <v>0</v>
+      </c>
+      <c r="D337" s="36">
         <v>0</v>
       </c>
       <c r="E337" s="8">
@@ -9409,7 +9469,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G337" s="61" t="s">
+      <c r="G337" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9418,10 +9478,10 @@
       <c r="B338" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C338" s="41">
-        <v>0</v>
-      </c>
-      <c r="D338" s="41">
+      <c r="C338" s="36">
+        <v>0</v>
+      </c>
+      <c r="D338" s="36">
         <v>0</v>
       </c>
       <c r="E338" s="8">
@@ -9432,7 +9492,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G338" s="61" t="s">
+      <c r="G338" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9441,10 +9501,10 @@
       <c r="B339" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C339" s="41">
-        <v>0</v>
-      </c>
-      <c r="D339" s="41">
+      <c r="C339" s="36">
+        <v>0</v>
+      </c>
+      <c r="D339" s="36">
         <v>0</v>
       </c>
       <c r="E339" s="8">
@@ -9455,7 +9515,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G339" s="61" t="s">
+      <c r="G339" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9464,11 +9524,11 @@
       <c r="B340" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C340" s="41">
+      <c r="C340" s="36">
         <f>SUM(C337:C339)</f>
         <v>0</v>
       </c>
-      <c r="D340" s="41">
+      <c r="D340" s="36">
         <v>0</v>
       </c>
       <c r="E340" s="8">
@@ -9479,7 +9539,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G340" s="61" t="s">
+      <c r="G340" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9488,10 +9548,10 @@
       <c r="B341" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C341" s="41">
-        <v>0</v>
-      </c>
-      <c r="D341" s="41">
+      <c r="C341" s="36">
+        <v>0</v>
+      </c>
+      <c r="D341" s="36">
         <v>0</v>
       </c>
       <c r="E341" s="8">
@@ -9502,7 +9562,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G341" s="61" t="s">
+      <c r="G341" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9511,21 +9571,21 @@
       <c r="B342" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C342" s="47"/>
-      <c r="D342" s="54"/>
+      <c r="C342" s="42"/>
+      <c r="D342" s="49"/>
       <c r="E342" s="8"/>
       <c r="F342" s="9"/>
-      <c r="G342" s="61"/>
+      <c r="G342" s="56"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
       <c r="B343" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C343" s="41">
-        <v>0</v>
-      </c>
-      <c r="D343" s="41">
+      <c r="C343" s="36">
+        <v>0</v>
+      </c>
+      <c r="D343" s="36">
         <v>0</v>
       </c>
       <c r="E343" s="8">
@@ -9536,7 +9596,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G343" s="61" t="s">
+      <c r="G343" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9545,10 +9605,10 @@
       <c r="B344" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C344" s="41">
-        <v>0</v>
-      </c>
-      <c r="D344" s="41">
+      <c r="C344" s="36">
+        <v>0</v>
+      </c>
+      <c r="D344" s="36">
         <v>0</v>
       </c>
       <c r="E344" s="8">
@@ -9559,7 +9619,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G344" s="61" t="s">
+      <c r="G344" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9568,10 +9628,10 @@
       <c r="B345" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C345" s="41">
-        <v>0</v>
-      </c>
-      <c r="D345" s="41">
+      <c r="C345" s="36">
+        <v>0</v>
+      </c>
+      <c r="D345" s="36">
         <v>0</v>
       </c>
       <c r="E345" s="8">
@@ -9582,7 +9642,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G345" s="61" t="s">
+      <c r="G345" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9591,10 +9651,10 @@
       <c r="B346" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C346" s="41">
-        <v>0</v>
-      </c>
-      <c r="D346" s="41">
+      <c r="C346" s="36">
+        <v>0</v>
+      </c>
+      <c r="D346" s="36">
         <v>0</v>
       </c>
       <c r="E346" s="8">
@@ -9605,7 +9665,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G346" s="61" t="s">
+      <c r="G346" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9614,11 +9674,11 @@
       <c r="B347" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C347" s="41">
+      <c r="C347" s="36">
         <f>SUM(C343:C346)</f>
         <v>0</v>
       </c>
-      <c r="D347" s="41">
+      <c r="D347" s="36">
         <f>SUM(D343:D346)</f>
         <v>0</v>
       </c>
@@ -9630,7 +9690,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G347" s="62" t="s">
+      <c r="G347" s="57" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9639,21 +9699,21 @@
       <c r="B348" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C348" s="46"/>
-      <c r="D348" s="54"/>
+      <c r="C348" s="41"/>
+      <c r="D348" s="49"/>
       <c r="E348" s="8"/>
       <c r="F348" s="9"/>
-      <c r="G348" s="56"/>
+      <c r="G348" s="51"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
       <c r="B349" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C349" s="41">
-        <v>0</v>
-      </c>
-      <c r="D349" s="41">
+      <c r="C349" s="36">
+        <v>0</v>
+      </c>
+      <c r="D349" s="36">
         <v>0</v>
       </c>
       <c r="E349" s="8">
@@ -9664,7 +9724,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G349" s="61" t="s">
+      <c r="G349" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9673,10 +9733,10 @@
       <c r="B350" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C350" s="41">
-        <v>0</v>
-      </c>
-      <c r="D350" s="41">
+      <c r="C350" s="36">
+        <v>0</v>
+      </c>
+      <c r="D350" s="36">
         <v>0</v>
       </c>
       <c r="E350" s="8">
@@ -9687,7 +9747,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G350" s="61" t="s">
+      <c r="G350" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9696,10 +9756,10 @@
       <c r="B351" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="41">
-        <v>0</v>
-      </c>
-      <c r="D351" s="41">
+      <c r="C351" s="36">
+        <v>0</v>
+      </c>
+      <c r="D351" s="36">
         <v>0</v>
       </c>
       <c r="E351" s="8">
@@ -9710,7 +9770,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G351" s="61" t="s">
+      <c r="G351" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9719,10 +9779,10 @@
       <c r="B352" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C352" s="41">
-        <v>0</v>
-      </c>
-      <c r="D352" s="41">
+      <c r="C352" s="36">
+        <v>0</v>
+      </c>
+      <c r="D352" s="36">
         <v>0</v>
       </c>
       <c r="E352" s="8">
@@ -9733,7 +9793,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G352" s="61" t="s">
+      <c r="G352" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9742,10 +9802,10 @@
       <c r="B353" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C353" s="41">
-        <v>0</v>
-      </c>
-      <c r="D353" s="41">
+      <c r="C353" s="36">
+        <v>0</v>
+      </c>
+      <c r="D353" s="36">
         <v>0</v>
       </c>
       <c r="E353" s="8">
@@ -9756,7 +9816,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G353" s="61" t="s">
+      <c r="G353" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9765,10 +9825,10 @@
       <c r="B354" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C354" s="41">
-        <v>0</v>
-      </c>
-      <c r="D354" s="41">
+      <c r="C354" s="36">
+        <v>0</v>
+      </c>
+      <c r="D354" s="36">
         <v>0</v>
       </c>
       <c r="E354" s="8">
@@ -9779,7 +9839,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G354" s="61" t="s">
+      <c r="G354" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9788,10 +9848,10 @@
       <c r="B355" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C355" s="41">
-        <v>0</v>
-      </c>
-      <c r="D355" s="41">
+      <c r="C355" s="36">
+        <v>0</v>
+      </c>
+      <c r="D355" s="36">
         <v>0</v>
       </c>
       <c r="E355" s="8">
@@ -9802,7 +9862,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G355" s="61" t="s">
+      <c r="G355" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9811,11 +9871,11 @@
       <c r="B356" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C356" s="41">
+      <c r="C356" s="36">
         <f>SUM(C349:C355)</f>
         <v>0</v>
       </c>
-      <c r="D356" s="41">
+      <c r="D356" s="36">
         <f>SUM(D349:D355)</f>
         <v>0</v>
       </c>
@@ -9827,7 +9887,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G356" s="62" t="s">
+      <c r="G356" s="57" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9838,11 +9898,11 @@
       <c r="B357" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C357" s="45"/>
-      <c r="D357" s="54"/>
+      <c r="C357" s="40"/>
+      <c r="D357" s="49"/>
       <c r="E357" s="8"/>
       <c r="F357" s="9"/>
-      <c r="G357" s="45"/>
+      <c r="G357" s="40"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
@@ -9851,21 +9911,21 @@
       <c r="B358" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C358" s="45"/>
-      <c r="D358" s="41"/>
+      <c r="C358" s="40"/>
+      <c r="D358" s="36"/>
       <c r="E358" s="8"/>
       <c r="F358" s="9"/>
-      <c r="G358" s="56"/>
+      <c r="G358" s="51"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C359" s="41">
-        <v>0</v>
-      </c>
-      <c r="D359" s="41">
+      <c r="C359" s="36">
+        <v>0</v>
+      </c>
+      <c r="D359" s="36">
         <v>0</v>
       </c>
       <c r="E359" s="8">
@@ -9876,7 +9936,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G359" s="61" t="s">
+      <c r="G359" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9885,10 +9945,10 @@
       <c r="B360" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C360" s="41">
-        <v>0</v>
-      </c>
-      <c r="D360" s="41">
+      <c r="C360" s="36">
+        <v>0</v>
+      </c>
+      <c r="D360" s="36">
         <v>0</v>
       </c>
       <c r="E360" s="8">
@@ -9899,7 +9959,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G360" s="61" t="s">
+      <c r="G360" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9908,10 +9968,10 @@
       <c r="B361" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C361" s="41">
-        <v>0</v>
-      </c>
-      <c r="D361" s="41">
+      <c r="C361" s="36">
+        <v>0</v>
+      </c>
+      <c r="D361" s="36">
         <v>0</v>
       </c>
       <c r="E361" s="8">
@@ -9922,7 +9982,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G361" s="61" t="s">
+      <c r="G361" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9931,10 +9991,10 @@
       <c r="B362" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C362" s="41">
-        <v>0</v>
-      </c>
-      <c r="D362" s="41">
+      <c r="C362" s="36">
+        <v>0</v>
+      </c>
+      <c r="D362" s="36">
         <v>0</v>
       </c>
       <c r="E362" s="8">
@@ -9945,7 +10005,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G362" s="61" t="s">
+      <c r="G362" s="56" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9954,11 +10014,11 @@
       <c r="B363" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C363" s="41">
+      <c r="C363" s="36">
         <f>SUM(C359:C362)</f>
         <v>0</v>
       </c>
-      <c r="D363" s="41">
+      <c r="D363" s="36">
         <f>SUM(D359:D362)</f>
         <v>0</v>
       </c>
@@ -9970,7 +10030,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G363" s="62" t="s">
+      <c r="G363" s="57" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9981,11 +10041,11 @@
       <c r="B364" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C364" s="48"/>
-      <c r="D364" s="54"/>
+      <c r="C364" s="43"/>
+      <c r="D364" s="49"/>
       <c r="E364" s="8"/>
       <c r="F364" s="9"/>
-      <c r="G364" s="56"/>
+      <c r="G364" s="51"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="26">
@@ -9994,11 +10054,11 @@
       <c r="B365" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C365" s="49"/>
-      <c r="D365" s="54"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="49"/>
       <c r="E365" s="8"/>
       <c r="F365" s="9"/>
-      <c r="G365" s="56"/>
+      <c r="G365" s="51"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="28" t="s">
@@ -10007,21 +10067,21 @@
       <c r="B366" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C366" s="50"/>
-      <c r="D366" s="54"/>
+      <c r="C366" s="45"/>
+      <c r="D366" s="49"/>
       <c r="E366" s="8"/>
       <c r="F366" s="9"/>
-      <c r="G366" s="56"/>
+      <c r="G366" s="51"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="28"/>
       <c r="B367" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C367" s="41">
-        <v>0</v>
-      </c>
-      <c r="D367" s="41">
+      <c r="C367" s="36">
+        <v>0</v>
+      </c>
+      <c r="D367" s="36">
         <v>0</v>
       </c>
       <c r="E367" s="8">
@@ -10032,7 +10092,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G367" s="63" t="s">
+      <c r="G367" s="58" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10041,10 +10101,10 @@
       <c r="B368" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C368" s="41">
-        <v>0</v>
-      </c>
-      <c r="D368" s="41">
+      <c r="C368" s="36">
+        <v>0</v>
+      </c>
+      <c r="D368" s="36">
         <v>0</v>
       </c>
       <c r="E368" s="8">
@@ -10055,7 +10115,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G368" s="64" t="s">
+      <c r="G368" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10064,10 +10124,10 @@
       <c r="B369" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C369" s="41">
-        <v>0</v>
-      </c>
-      <c r="D369" s="41">
+      <c r="C369" s="36">
+        <v>0</v>
+      </c>
+      <c r="D369" s="36">
         <v>0</v>
       </c>
       <c r="E369" s="8">
@@ -10078,7 +10138,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G369" s="64" t="s">
+      <c r="G369" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10087,10 +10147,10 @@
       <c r="B370" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="C370" s="41">
-        <v>0</v>
-      </c>
-      <c r="D370" s="41">
+      <c r="C370" s="36">
+        <v>0</v>
+      </c>
+      <c r="D370" s="36">
         <v>0</v>
       </c>
       <c r="E370" s="8">
@@ -10101,7 +10161,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G370" s="64" t="s">
+      <c r="G370" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10110,10 +10170,10 @@
       <c r="B371" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="41">
-        <v>0</v>
-      </c>
-      <c r="D371" s="41">
+      <c r="C371" s="36">
+        <v>0</v>
+      </c>
+      <c r="D371" s="36">
         <v>0</v>
       </c>
       <c r="E371" s="8">
@@ -10124,7 +10184,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G371" s="64" t="s">
+      <c r="G371" s="59" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10133,10 +10193,10 @@
       <c r="B372" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C372" s="41">
-        <v>0</v>
-      </c>
-      <c r="D372" s="41">
+      <c r="C372" s="36">
+        <v>0</v>
+      </c>
+      <c r="D372" s="36">
         <v>0</v>
       </c>
       <c r="E372" s="8">
@@ -10147,7 +10207,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G372" s="64" t="s">
+      <c r="G372" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10156,10 +10216,10 @@
       <c r="B373" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C373" s="41">
-        <v>0</v>
-      </c>
-      <c r="D373" s="41">
+      <c r="C373" s="36">
+        <v>0</v>
+      </c>
+      <c r="D373" s="36">
         <v>0</v>
       </c>
       <c r="E373" s="8">
@@ -10170,7 +10230,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G373" s="64" t="s">
+      <c r="G373" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10179,10 +10239,10 @@
       <c r="B374" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C374" s="41">
-        <v>0</v>
-      </c>
-      <c r="D374" s="41">
+      <c r="C374" s="36">
+        <v>0</v>
+      </c>
+      <c r="D374" s="36">
         <v>0</v>
       </c>
       <c r="E374" s="8">
@@ -10193,7 +10253,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G374" s="64" t="s">
+      <c r="G374" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10202,10 +10262,10 @@
       <c r="B375" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C375" s="41">
-        <v>0</v>
-      </c>
-      <c r="D375" s="41">
+      <c r="C375" s="36">
+        <v>0</v>
+      </c>
+      <c r="D375" s="36">
         <v>0</v>
       </c>
       <c r="E375" s="8">
@@ -10216,7 +10276,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G375" s="64" t="s">
+      <c r="G375" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10227,21 +10287,21 @@
       <c r="B376" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C376" s="51"/>
-      <c r="D376" s="54"/>
+      <c r="C376" s="46"/>
+      <c r="D376" s="49"/>
       <c r="E376" s="8"/>
       <c r="F376" s="9"/>
-      <c r="G376" s="65"/>
+      <c r="G376" s="60"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="28"/>
       <c r="B377" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C377" s="41">
-        <v>0</v>
-      </c>
-      <c r="D377" s="41">
+      <c r="C377" s="36">
+        <v>0</v>
+      </c>
+      <c r="D377" s="36">
         <v>0</v>
       </c>
       <c r="E377" s="8">
@@ -10252,7 +10312,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G377" s="64" t="s">
+      <c r="G377" s="59" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10261,10 +10321,10 @@
       <c r="B378" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C378" s="41">
-        <v>0</v>
-      </c>
-      <c r="D378" s="41">
+      <c r="C378" s="36">
+        <v>0</v>
+      </c>
+      <c r="D378" s="36">
         <v>0</v>
       </c>
       <c r="E378" s="8">
@@ -10275,7 +10335,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G378" s="64" t="s">
+      <c r="G378" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10284,10 +10344,10 @@
       <c r="B379" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C379" s="41">
-        <v>0</v>
-      </c>
-      <c r="D379" s="41">
+      <c r="C379" s="36">
+        <v>0</v>
+      </c>
+      <c r="D379" s="36">
         <v>0</v>
       </c>
       <c r="E379" s="8">
@@ -10298,7 +10358,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G379" s="64" t="s">
+      <c r="G379" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10309,21 +10369,21 @@
       <c r="B380" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C380" s="51"/>
-      <c r="D380" s="41"/>
+      <c r="C380" s="46"/>
+      <c r="D380" s="36"/>
       <c r="E380" s="8"/>
       <c r="F380" s="9"/>
-      <c r="G380" s="66"/>
+      <c r="G380" s="61"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="28"/>
       <c r="B381" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C381" s="41">
-        <v>0</v>
-      </c>
-      <c r="D381" s="41">
+      <c r="C381" s="36">
+        <v>0</v>
+      </c>
+      <c r="D381" s="36">
         <v>0</v>
       </c>
       <c r="E381" s="8">
@@ -10334,7 +10394,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G381" s="64" t="s">
+      <c r="G381" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10343,10 +10403,10 @@
       <c r="B382" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C382" s="41">
-        <v>0</v>
-      </c>
-      <c r="D382" s="41">
+      <c r="C382" s="36">
+        <v>0</v>
+      </c>
+      <c r="D382" s="36">
         <v>0</v>
       </c>
       <c r="E382" s="8">
@@ -10357,7 +10417,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G382" s="64" t="s">
+      <c r="G382" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10366,10 +10426,10 @@
       <c r="B383" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C383" s="41">
-        <v>0</v>
-      </c>
-      <c r="D383" s="41">
+      <c r="C383" s="36">
+        <v>0</v>
+      </c>
+      <c r="D383" s="36">
         <v>0</v>
       </c>
       <c r="E383" s="8">
@@ -10380,7 +10440,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G383" s="64" t="s">
+      <c r="G383" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10389,10 +10449,10 @@
       <c r="B384" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C384" s="41">
-        <v>0</v>
-      </c>
-      <c r="D384" s="41">
+      <c r="C384" s="36">
+        <v>0</v>
+      </c>
+      <c r="D384" s="36">
         <v>0</v>
       </c>
       <c r="E384" s="8">
@@ -10403,7 +10463,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G384" s="64" t="s">
+      <c r="G384" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10412,10 +10472,10 @@
       <c r="B385" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C385" s="41">
-        <v>0</v>
-      </c>
-      <c r="D385" s="41">
+      <c r="C385" s="36">
+        <v>0</v>
+      </c>
+      <c r="D385" s="36">
         <v>0</v>
       </c>
       <c r="E385" s="8">
@@ -10426,7 +10486,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G385" s="64" t="s">
+      <c r="G385" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10435,10 +10495,10 @@
       <c r="B386" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C386" s="41">
-        <v>0</v>
-      </c>
-      <c r="D386" s="41">
+      <c r="C386" s="36">
+        <v>0</v>
+      </c>
+      <c r="D386" s="36">
         <v>0</v>
       </c>
       <c r="E386" s="8">
@@ -10449,7 +10509,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G386" s="64" t="s">
+      <c r="G386" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10458,10 +10518,10 @@
       <c r="B387" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C387" s="41">
-        <v>0</v>
-      </c>
-      <c r="D387" s="41">
+      <c r="C387" s="36">
+        <v>0</v>
+      </c>
+      <c r="D387" s="36">
         <v>0</v>
       </c>
       <c r="E387" s="8">
@@ -10472,7 +10532,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G387" s="64" t="s">
+      <c r="G387" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10481,10 +10541,10 @@
       <c r="B388" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="C388" s="41">
-        <v>0</v>
-      </c>
-      <c r="D388" s="41">
+      <c r="C388" s="36">
+        <v>0</v>
+      </c>
+      <c r="D388" s="36">
         <v>0</v>
       </c>
       <c r="E388" s="8">
@@ -10495,7 +10555,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G388" s="64" t="s">
+      <c r="G388" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10504,10 +10564,10 @@
       <c r="B389" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="C389" s="41">
-        <v>0</v>
-      </c>
-      <c r="D389" s="41">
+      <c r="C389" s="36">
+        <v>0</v>
+      </c>
+      <c r="D389" s="36">
         <v>0</v>
       </c>
       <c r="E389" s="8">
@@ -10518,7 +10578,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G389" s="67" t="s">
+      <c r="G389" s="62" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10527,10 +10587,10 @@
       <c r="B390" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="C390" s="41">
-        <v>0</v>
-      </c>
-      <c r="D390" s="41">
+      <c r="C390" s="36">
+        <v>0</v>
+      </c>
+      <c r="D390" s="36">
         <v>0</v>
       </c>
       <c r="E390" s="8">
@@ -10541,7 +10601,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G390" s="64" t="s">
+      <c r="G390" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10550,10 +10610,10 @@
       <c r="B391" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C391" s="41">
-        <v>0</v>
-      </c>
-      <c r="D391" s="41">
+      <c r="C391" s="36">
+        <v>0</v>
+      </c>
+      <c r="D391" s="36">
         <v>0</v>
       </c>
       <c r="E391" s="8">
@@ -10564,7 +10624,7 @@
         <f t="shared" ref="F391:F399" si="40">SUM(D391-C391)/C391*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G391" s="64" t="s">
+      <c r="G391" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10573,10 +10633,10 @@
       <c r="B392" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C392" s="41">
-        <v>0</v>
-      </c>
-      <c r="D392" s="41">
+      <c r="C392" s="36">
+        <v>0</v>
+      </c>
+      <c r="D392" s="36">
         <v>0</v>
       </c>
       <c r="E392" s="8">
@@ -10587,7 +10647,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G392" s="64" t="s">
+      <c r="G392" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10596,10 +10656,10 @@
       <c r="B393" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C393" s="41">
-        <v>0</v>
-      </c>
-      <c r="D393" s="41">
+      <c r="C393" s="36">
+        <v>0</v>
+      </c>
+      <c r="D393" s="36">
         <v>0</v>
       </c>
       <c r="E393" s="8">
@@ -10610,7 +10670,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G393" s="64" t="s">
+      <c r="G393" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10621,21 +10681,21 @@
       <c r="B394" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C394" s="51"/>
-      <c r="D394" s="54"/>
+      <c r="C394" s="46"/>
+      <c r="D394" s="49"/>
       <c r="E394" s="8"/>
       <c r="F394" s="9"/>
-      <c r="G394" s="66"/>
+      <c r="G394" s="61"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="28"/>
       <c r="B395" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C395" s="41">
-        <v>0</v>
-      </c>
-      <c r="D395" s="41">
+      <c r="C395" s="36">
+        <v>0</v>
+      </c>
+      <c r="D395" s="36">
         <v>0</v>
       </c>
       <c r="E395" s="8">
@@ -10646,7 +10706,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G395" s="64" t="s">
+      <c r="G395" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10655,10 +10715,10 @@
       <c r="B396" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C396" s="41">
-        <v>0</v>
-      </c>
-      <c r="D396" s="41">
+      <c r="C396" s="36">
+        <v>0</v>
+      </c>
+      <c r="D396" s="36">
         <v>0</v>
       </c>
       <c r="E396" s="8">
@@ -10669,7 +10729,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G396" s="64" t="s">
+      <c r="G396" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10678,10 +10738,10 @@
       <c r="B397" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C397" s="41">
-        <v>0</v>
-      </c>
-      <c r="D397" s="41">
+      <c r="C397" s="36">
+        <v>0</v>
+      </c>
+      <c r="D397" s="36">
         <v>0</v>
       </c>
       <c r="E397" s="8">
@@ -10692,7 +10752,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G397" s="64" t="s">
+      <c r="G397" s="59" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10701,10 +10761,10 @@
       <c r="B398" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C398" s="41">
-        <v>0</v>
-      </c>
-      <c r="D398" s="41">
+      <c r="C398" s="36">
+        <v>0</v>
+      </c>
+      <c r="D398" s="36">
         <v>0</v>
       </c>
       <c r="E398" s="8">
@@ -10715,7 +10775,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G398" s="64" t="s">
+      <c r="G398" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10724,10 +10784,10 @@
       <c r="B399" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C399" s="41">
-        <v>0</v>
-      </c>
-      <c r="D399" s="41">
+      <c r="C399" s="36">
+        <v>0</v>
+      </c>
+      <c r="D399" s="36">
         <v>0</v>
       </c>
       <c r="E399" s="8">
@@ -10738,7 +10798,7 @@
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G399" s="64" t="s">
+      <c r="G399" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10749,11 +10809,11 @@
       <c r="B400" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C400" s="48"/>
-      <c r="D400" s="54"/>
+      <c r="C400" s="43"/>
+      <c r="D400" s="49"/>
       <c r="E400" s="8"/>
       <c r="F400" s="9"/>
-      <c r="G400" s="56"/>
+      <c r="G400" s="51"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="26">
@@ -10762,21 +10822,21 @@
       <c r="B401" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C401" s="49"/>
-      <c r="D401" s="54"/>
+      <c r="C401" s="44"/>
+      <c r="D401" s="49"/>
       <c r="E401" s="8"/>
       <c r="F401" s="9"/>
-      <c r="G401" s="56"/>
+      <c r="G401" s="51"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="28"/>
       <c r="B402" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C402" s="41">
-        <v>0</v>
-      </c>
-      <c r="D402" s="41">
+      <c r="C402" s="36">
+        <v>0</v>
+      </c>
+      <c r="D402" s="36">
         <v>0</v>
       </c>
       <c r="E402" s="8">
@@ -10787,7 +10847,7 @@
         <f t="shared" ref="F402:F404" si="43">SUM(D402-C402)/C402*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G402" s="56" t="s">
+      <c r="G402" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10796,10 +10856,10 @@
       <c r="B403" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="C403" s="41">
-        <v>0</v>
-      </c>
-      <c r="D403" s="41">
+      <c r="C403" s="36">
+        <v>0</v>
+      </c>
+      <c r="D403" s="36">
         <v>0</v>
       </c>
       <c r="E403" s="8">
@@ -10810,7 +10870,7 @@
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G403" s="56" t="s">
+      <c r="G403" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10819,10 +10879,10 @@
       <c r="B404" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C404" s="41">
-        <v>0</v>
-      </c>
-      <c r="D404" s="41">
+      <c r="C404" s="36">
+        <v>0</v>
+      </c>
+      <c r="D404" s="36">
         <v>0</v>
       </c>
       <c r="E404" s="8">
@@ -10833,7 +10893,7 @@
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G404" s="56" t="s">
+      <c r="G404" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10842,10 +10902,10 @@
       <c r="B405" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C405" s="41">
-        <v>0</v>
-      </c>
-      <c r="D405" s="41">
+      <c r="C405" s="36">
+        <v>0</v>
+      </c>
+      <c r="D405" s="36">
         <v>0</v>
       </c>
       <c r="E405" s="8">
@@ -10856,7 +10916,7 @@
         <f t="shared" ref="F405" si="44">SUM(D405-C405)/C405*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G405" s="56" t="s">
+      <c r="G405" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10865,11 +10925,11 @@
       <c r="B406" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C406" s="52">
+      <c r="C406" s="47">
         <f>SUM(C402:C405)</f>
         <v>0</v>
       </c>
-      <c r="D406" s="55">
+      <c r="D406" s="50">
         <f>SUM(D402:D405)</f>
         <v>0</v>
       </c>
@@ -10881,8 +10941,156 @@
         <f>SUM(D406-C406)/C406*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G406" s="68" t="s">
+      <c r="G406" s="63" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B407" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C407" s="71"/>
+      <c r="D407" s="72"/>
+      <c r="E407" s="73"/>
+      <c r="F407" s="74"/>
+      <c r="G407" s="75"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" s="76"/>
+      <c r="B408" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C408" s="71">
+        <v>0</v>
+      </c>
+      <c r="D408" s="72">
+        <v>0</v>
+      </c>
+      <c r="E408" s="73">
+        <v>0</v>
+      </c>
+      <c r="F408" s="74" t="e">
+        <f t="shared" ref="F408:F413" si="45">SUM(D408-C408)/C408*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G408" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" s="76"/>
+      <c r="B409" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C409" s="71">
+        <v>0</v>
+      </c>
+      <c r="D409" s="72">
+        <v>0</v>
+      </c>
+      <c r="E409" s="73">
+        <v>0</v>
+      </c>
+      <c r="F409" s="74" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G409" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" s="76"/>
+      <c r="B410" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C410" s="71">
+        <v>0</v>
+      </c>
+      <c r="D410" s="72">
+        <v>0</v>
+      </c>
+      <c r="E410" s="73">
+        <v>0</v>
+      </c>
+      <c r="F410" s="74" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G410" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411" s="76"/>
+      <c r="B411" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C411" s="71">
+        <v>0</v>
+      </c>
+      <c r="D411" s="72">
+        <v>0</v>
+      </c>
+      <c r="E411" s="73">
+        <v>0</v>
+      </c>
+      <c r="F411" s="74" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G411" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" s="76"/>
+      <c r="B412" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C412" s="71">
+        <v>0</v>
+      </c>
+      <c r="D412" s="72">
+        <v>0</v>
+      </c>
+      <c r="E412" s="73">
+        <v>0</v>
+      </c>
+      <c r="F412" s="74" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G412" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" s="78"/>
+      <c r="B413" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" s="80">
+        <f>SUM(C408:C412)</f>
+        <v>0</v>
+      </c>
+      <c r="D413" s="80">
+        <f>SUM(D408:D412)</f>
+        <v>0</v>
+      </c>
+      <c r="E413" s="80">
+        <f>SUM(E408:E412)</f>
+        <v>0</v>
+      </c>
+      <c r="F413" s="74" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G413" s="75" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/excel/format_laporan_operasi_2021_preview.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1446,21 +1446,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,6 +1477,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1802,7 +1802,7 @@
   <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+      <selection activeCell="E412" sqref="E412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,27 +1813,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="35">
         <v>2000</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="E406" s="8">
-        <f t="shared" si="42"/>
+        <f>D406-C406</f>
         <v>0</v>
       </c>
       <c r="F406" s="33" t="e">
@@ -10946,150 +10946,155 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A407" s="69" t="s">
+      <c r="A407" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="B407" s="70" t="s">
+      <c r="B407" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="C407" s="71"/>
-      <c r="D407" s="72"/>
-      <c r="E407" s="73"/>
-      <c r="F407" s="74"/>
-      <c r="G407" s="75"/>
+      <c r="C407" s="66"/>
+      <c r="D407" s="67"/>
+      <c r="E407" s="68"/>
+      <c r="F407" s="69"/>
+      <c r="G407" s="70"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A408" s="76"/>
-      <c r="B408" s="77" t="s">
+      <c r="A408" s="71"/>
+      <c r="B408" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="C408" s="71">
-        <v>0</v>
-      </c>
-      <c r="D408" s="72">
-        <v>0</v>
-      </c>
-      <c r="E408" s="73">
-        <v>0</v>
-      </c>
-      <c r="F408" s="74" t="e">
+      <c r="C408" s="66">
+        <v>0</v>
+      </c>
+      <c r="D408" s="67">
+        <v>0</v>
+      </c>
+      <c r="E408" s="68">
+        <f>D408-C408</f>
+        <v>0</v>
+      </c>
+      <c r="F408" s="69" t="e">
         <f t="shared" ref="F408:F413" si="45">SUM(D408-C408)/C408*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G408" s="75" t="s">
+      <c r="G408" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A409" s="76"/>
-      <c r="B409" s="77" t="s">
+      <c r="A409" s="71"/>
+      <c r="B409" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C409" s="71">
-        <v>0</v>
-      </c>
-      <c r="D409" s="72">
-        <v>0</v>
-      </c>
-      <c r="E409" s="73">
-        <v>0</v>
-      </c>
-      <c r="F409" s="74" t="e">
+      <c r="C409" s="66">
+        <v>0</v>
+      </c>
+      <c r="D409" s="67">
+        <v>0</v>
+      </c>
+      <c r="E409" s="68">
+        <f t="shared" ref="E409:E413" si="46">D409-C409</f>
+        <v>0</v>
+      </c>
+      <c r="F409" s="69" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G409" s="75" t="s">
+      <c r="G409" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A410" s="76"/>
-      <c r="B410" s="77" t="s">
+      <c r="A410" s="71"/>
+      <c r="B410" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C410" s="71">
-        <v>0</v>
-      </c>
-      <c r="D410" s="72">
-        <v>0</v>
-      </c>
-      <c r="E410" s="73">
-        <v>0</v>
-      </c>
-      <c r="F410" s="74" t="e">
+      <c r="C410" s="66">
+        <v>0</v>
+      </c>
+      <c r="D410" s="67">
+        <v>0</v>
+      </c>
+      <c r="E410" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F410" s="69" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G410" s="75" t="s">
+      <c r="G410" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A411" s="76"/>
-      <c r="B411" s="77" t="s">
+      <c r="A411" s="71"/>
+      <c r="B411" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C411" s="71">
-        <v>0</v>
-      </c>
-      <c r="D411" s="72">
-        <v>0</v>
-      </c>
-      <c r="E411" s="73">
-        <v>0</v>
-      </c>
-      <c r="F411" s="74" t="e">
+      <c r="C411" s="66">
+        <v>0</v>
+      </c>
+      <c r="D411" s="67">
+        <v>0</v>
+      </c>
+      <c r="E411" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F411" s="69" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G411" s="75" t="s">
+      <c r="G411" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A412" s="76"/>
-      <c r="B412" s="77" t="s">
+      <c r="A412" s="71"/>
+      <c r="B412" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C412" s="71">
-        <v>0</v>
-      </c>
-      <c r="D412" s="72">
-        <v>0</v>
-      </c>
-      <c r="E412" s="73">
-        <v>0</v>
-      </c>
-      <c r="F412" s="74" t="e">
+      <c r="C412" s="66">
+        <v>0</v>
+      </c>
+      <c r="D412" s="67">
+        <v>0</v>
+      </c>
+      <c r="E412" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F412" s="69" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G412" s="75" t="s">
+      <c r="G412" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A413" s="78"/>
-      <c r="B413" s="79" t="s">
+      <c r="A413" s="73"/>
+      <c r="B413" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C413" s="80">
+      <c r="C413" s="75">
         <f>SUM(C408:C412)</f>
         <v>0</v>
       </c>
-      <c r="D413" s="80">
+      <c r="D413" s="75">
         <f>SUM(D408:D412)</f>
         <v>0</v>
       </c>
-      <c r="E413" s="80">
-        <f>SUM(E408:E412)</f>
-        <v>0</v>
-      </c>
-      <c r="F413" s="74" t="e">
+      <c r="E413" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F413" s="69" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G413" s="75" t="s">
+      <c r="G413" s="70" t="s">
         <v>44</v>
       </c>
     </row>

--- a/public/template/excel/format_laporan_operasi_2021_preview.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="298">
   <si>
     <t>NO</t>
   </si>
@@ -946,6 +946,18 @@
   </si>
   <si>
     <t>a. Motor</t>
+  </si>
+  <si>
+    <t>GIAT RANDOM CHECK "RAPID TEST ANTI GEN"</t>
+  </si>
+  <si>
+    <t>a. Positif</t>
+  </si>
+  <si>
+    <t>b. Negatif</t>
+  </si>
+  <si>
+    <t>VIII</t>
   </si>
 </sst>
 </file>
@@ -1799,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E412" sqref="E412"/>
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10840,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E402" s="8">
-        <f t="shared" ref="E402:E406" si="42">D402-C402</f>
+        <f t="shared" ref="E402:E405" si="42">D402-C402</f>
         <v>0</v>
       </c>
       <c r="F402" s="9" t="e">
@@ -11096,6 +11108,90 @@
       </c>
       <c r="G413" s="70" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B414" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C414" s="66"/>
+      <c r="D414" s="67"/>
+      <c r="E414" s="68"/>
+      <c r="F414" s="69"/>
+      <c r="G414" s="70"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" s="71"/>
+      <c r="B415" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C415" s="66">
+        <v>0</v>
+      </c>
+      <c r="D415" s="67">
+        <v>0</v>
+      </c>
+      <c r="E415" s="68">
+        <f>D415-C415</f>
+        <v>0</v>
+      </c>
+      <c r="F415" s="69" t="e">
+        <f t="shared" ref="F415:F417" si="47">SUM(D415-C415)/C415*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G415" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="71"/>
+      <c r="B416" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C416" s="66">
+        <v>0</v>
+      </c>
+      <c r="D416" s="67">
+        <v>0</v>
+      </c>
+      <c r="E416" s="68">
+        <f t="shared" ref="E416:E417" si="48">D416-C416</f>
+        <v>0</v>
+      </c>
+      <c r="F416" s="69" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G416" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" s="73"/>
+      <c r="B417" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" s="75">
+        <f>SUM(C415:C416)</f>
+        <v>0</v>
+      </c>
+      <c r="D417" s="75">
+        <f>SUM(D415:D416)</f>
+        <v>0</v>
+      </c>
+      <c r="E417" s="68">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F417" s="69" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G417" s="70" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
